--- a/Code/Results/Cases/Case_4_33/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_33/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9450473962719445</v>
+        <v>0.9450473962719433</v>
       </c>
       <c r="D2">
-        <v>0.973295613970234</v>
+        <v>0.9732956139702327</v>
       </c>
       <c r="E2">
-        <v>0.9536473373018276</v>
+        <v>0.9536473373018264</v>
       </c>
       <c r="F2">
-        <v>0.918731376085356</v>
+        <v>0.9187313760853548</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.022977511773386</v>
+        <v>1.022977511773385</v>
       </c>
       <c r="J2">
-        <v>0.9690058732709883</v>
+        <v>0.9690058732709871</v>
       </c>
       <c r="K2">
-        <v>0.9851399609852906</v>
+        <v>0.9851399609852893</v>
       </c>
       <c r="L2">
-        <v>0.9657925752090181</v>
+        <v>0.9657925752090167</v>
       </c>
       <c r="M2">
-        <v>0.9314523839344083</v>
+        <v>0.9314523839344072</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9610515116676025</v>
+        <v>0.9610515116675987</v>
       </c>
       <c r="D3">
-        <v>0.9855381026909151</v>
+        <v>0.9855381026909119</v>
       </c>
       <c r="E3">
-        <v>0.9689933280244508</v>
+        <v>0.9689933280244466</v>
       </c>
       <c r="F3">
-        <v>0.9383755862309068</v>
+        <v>0.9383755862309032</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.028667993723458</v>
+        <v>1.028667993723456</v>
       </c>
       <c r="J3">
-        <v>0.9826633614452245</v>
+        <v>0.9826633614452208</v>
       </c>
       <c r="K3">
-        <v>0.9963594327456132</v>
+        <v>0.9963594327456101</v>
       </c>
       <c r="L3">
-        <v>0.980038944314042</v>
+        <v>0.9800389443140378</v>
       </c>
       <c r="M3">
-        <v>0.9498628033281739</v>
+        <v>0.9498628033281702</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9706860200718025</v>
+        <v>0.9706860200718046</v>
       </c>
       <c r="D4">
-        <v>0.9929080803174489</v>
+        <v>0.9929080803174508</v>
       </c>
       <c r="E4">
-        <v>0.9782390967051818</v>
+        <v>0.9782390967051841</v>
       </c>
       <c r="F4">
-        <v>0.9501813473182008</v>
+        <v>0.9501813473182023</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.032067618215289</v>
+        <v>1.03206761821529</v>
       </c>
       <c r="J4">
-        <v>0.9908705132723945</v>
+        <v>0.9908705132723963</v>
       </c>
       <c r="K4">
-        <v>1.003092858941844</v>
+        <v>1.003092858941845</v>
       </c>
       <c r="L4">
-        <v>0.9886074511639075</v>
+        <v>0.9886074511639095</v>
       </c>
       <c r="M4">
-        <v>0.9609207061363985</v>
+        <v>0.9609207061363998</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9745862654965135</v>
+        <v>0.9745862654965112</v>
       </c>
       <c r="D5">
-        <v>0.9958911248093973</v>
+        <v>0.9958911248093949</v>
       </c>
       <c r="E5">
-        <v>0.9819835428252066</v>
+        <v>0.9819835428252042</v>
       </c>
       <c r="F5">
-        <v>0.9549573517623126</v>
+        <v>0.9549573517623098</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,16 +553,16 @@
         <v>1.033437484224139</v>
       </c>
       <c r="J5">
-        <v>0.9941893832378393</v>
+        <v>0.994189383237837</v>
       </c>
       <c r="K5">
-        <v>1.005813542350441</v>
+        <v>1.005813542350438</v>
       </c>
       <c r="L5">
-        <v>0.9920741885370895</v>
+        <v>0.9920741885370874</v>
       </c>
       <c r="M5">
-        <v>0.9653924706621516</v>
+        <v>0.9653924706621491</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9752328940241949</v>
+        <v>0.9752328940241982</v>
       </c>
       <c r="D6">
-        <v>0.9963856492323003</v>
+        <v>0.9963856492323031</v>
       </c>
       <c r="E6">
-        <v>0.9826044280657035</v>
+        <v>0.982604428065707</v>
       </c>
       <c r="F6">
-        <v>0.9557490245945069</v>
+        <v>0.9557490245945105</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.033664218216167</v>
+        <v>1.033664218216169</v>
       </c>
       <c r="J6">
-        <v>0.9947394144254218</v>
+        <v>0.994739414425425</v>
       </c>
       <c r="K6">
-        <v>1.006264301687341</v>
+        <v>1.006264301687344</v>
       </c>
       <c r="L6">
-        <v>0.9926488267078978</v>
+        <v>0.9926488267079013</v>
       </c>
       <c r="M6">
-        <v>0.9661336087119807</v>
+        <v>0.9661336087119844</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9707386990990232</v>
+        <v>0.9707386990990262</v>
       </c>
       <c r="D7">
-        <v>0.9929483735250386</v>
+        <v>0.9929483735250412</v>
       </c>
       <c r="E7">
-        <v>0.978289665409622</v>
+        <v>0.9782896654096257</v>
       </c>
       <c r="F7">
-        <v>0.9502458658052934</v>
+        <v>0.9502458658052964</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.03208614599714</v>
       </c>
       <c r="J7">
-        <v>0.9909153541046724</v>
+        <v>0.9909153541046752</v>
       </c>
       <c r="K7">
-        <v>1.003129626833258</v>
+        <v>1.003129626833261</v>
       </c>
       <c r="L7">
-        <v>0.9886542829348669</v>
+        <v>0.9886542829348702</v>
       </c>
       <c r="M7">
-        <v>0.9609811216303605</v>
+        <v>0.9609811216303634</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9506207888116948</v>
+        <v>0.9506207888116955</v>
       </c>
       <c r="D8">
-        <v>0.9775587039782873</v>
+        <v>0.9775587039782878</v>
       </c>
       <c r="E8">
-        <v>0.9589897674153448</v>
+        <v>0.9589897674153458</v>
       </c>
       <c r="F8">
-        <v>0.9255779591628966</v>
+        <v>0.9255779591628978</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.024964783265853</v>
+        <v>1.024964783265854</v>
       </c>
       <c r="J8">
-        <v>0.9737652271620478</v>
+        <v>0.9737652271620487</v>
       </c>
       <c r="K8">
-        <v>0.9890514891482448</v>
+        <v>0.9890514891482455</v>
       </c>
       <c r="L8">
-        <v>0.9707554760697511</v>
+        <v>0.9707554760697522</v>
       </c>
       <c r="M8">
-        <v>0.937870218519694</v>
+        <v>0.937870218519695</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9082211425722659</v>
+        <v>0.9082211425722685</v>
       </c>
       <c r="D9">
-        <v>0.9451567848942939</v>
+        <v>0.9451567848942961</v>
       </c>
       <c r="E9">
-        <v>0.9183963075436482</v>
+        <v>0.9183963075436509</v>
       </c>
       <c r="F9">
-        <v>0.8732853858809229</v>
+        <v>0.8732853858809253</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.009729843188051</v>
+        <v>1.009729843188052</v>
       </c>
       <c r="J9">
-        <v>0.9374902013894116</v>
+        <v>0.937490201389414</v>
       </c>
       <c r="K9">
-        <v>0.959207080489868</v>
+        <v>0.9592070804898704</v>
       </c>
       <c r="L9">
-        <v>0.9329683577771307</v>
+        <v>0.9329683577771332</v>
       </c>
       <c r="M9">
-        <v>0.8888338883329094</v>
+        <v>0.8888338883329119</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8720514885321774</v>
+        <v>0.8720514885321776</v>
       </c>
       <c r="D10">
-        <v>0.9176158495323899</v>
+        <v>0.9176158495323904</v>
       </c>
       <c r="E10">
-        <v>0.8838614299708855</v>
+        <v>0.8838614299708858</v>
       </c>
       <c r="F10">
-        <v>0.8281385043397524</v>
+        <v>0.8281385043397527</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>0.9965874262087129</v>
+        <v>0.9965874262087131</v>
       </c>
       <c r="J10">
-        <v>0.9064545057443443</v>
+        <v>0.9064545057443445</v>
       </c>
       <c r="K10">
-        <v>0.9336509481426618</v>
+        <v>0.9336509481426621</v>
       </c>
       <c r="L10">
-        <v>0.9007002844964492</v>
+        <v>0.9007002844964493</v>
       </c>
       <c r="M10">
-        <v>0.8465021485637217</v>
+        <v>0.8465021485637221</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -766,13 +766,13 @@
         <v>0.8530094837334804</v>
       </c>
       <c r="D11">
-        <v>0.9031743413566341</v>
+        <v>0.903174341356634</v>
       </c>
       <c r="E11">
-        <v>0.8657173285548109</v>
+        <v>0.8657173285548107</v>
       </c>
       <c r="F11">
-        <v>0.8040786205616691</v>
+        <v>0.8040786205616692</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -784,13 +784,13 @@
         <v>0.8900946094233217</v>
       </c>
       <c r="K11">
-        <v>0.9201865353815208</v>
+        <v>0.9201865353815207</v>
       </c>
       <c r="L11">
-        <v>0.8837097944066961</v>
+        <v>0.8837097944066959</v>
       </c>
       <c r="M11">
-        <v>0.823962906522173</v>
+        <v>0.8239629065221731</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8451566781997092</v>
+        <v>0.8451566781997024</v>
       </c>
       <c r="D12">
-        <v>0.8972328667180326</v>
+        <v>0.897232866718027</v>
       </c>
       <c r="E12">
-        <v>0.8582426343944689</v>
+        <v>0.8582426343944622</v>
       </c>
       <c r="F12">
-        <v>0.7940829275700758</v>
+        <v>0.7940829275700679</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>0.9867739053465748</v>
+        <v>0.9867739053465722</v>
       </c>
       <c r="J12">
-        <v>0.8833449176310609</v>
+        <v>0.8833449176310548</v>
       </c>
       <c r="K12">
-        <v>0.9146346706682057</v>
+        <v>0.9146346706682004</v>
       </c>
       <c r="L12">
-        <v>0.8767034628597491</v>
+        <v>0.8767034628597428</v>
       </c>
       <c r="M12">
-        <v>0.8146057351290894</v>
+        <v>0.814605735129082</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8468835921371648</v>
+        <v>0.8468835921371654</v>
       </c>
       <c r="D13">
-        <v>0.8985387032412657</v>
+        <v>0.8985387032412659</v>
       </c>
       <c r="E13">
-        <v>0.8598859992791712</v>
+        <v>0.8598859992791714</v>
       </c>
       <c r="F13">
-        <v>0.7962851160691693</v>
+        <v>0.7962851160691699</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>0.987404533762976</v>
+        <v>0.9874045337629759</v>
       </c>
       <c r="J13">
-        <v>0.8848293754794677</v>
+        <v>0.8848293754794682</v>
       </c>
       <c r="K13">
-        <v>0.9158554939750966</v>
+        <v>0.9158554939750969</v>
       </c>
       <c r="L13">
-        <v>0.878244190766533</v>
+        <v>0.8782441907665334</v>
       </c>
       <c r="M13">
-        <v>0.8166668519061322</v>
+        <v>0.816666851906133</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8523787337643379</v>
+        <v>0.8523787337643394</v>
       </c>
       <c r="D14">
-        <v>0.9026967916738045</v>
+        <v>0.9026967916738053</v>
       </c>
       <c r="E14">
-        <v>0.8651167781546252</v>
+        <v>0.8651167781546266</v>
       </c>
       <c r="F14">
-        <v>0.8032774518581467</v>
+        <v>0.8032774518581486</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>0.989410916612395</v>
+        <v>0.9894109166123953</v>
       </c>
       <c r="J14">
-        <v>0.8895525209606298</v>
+        <v>0.8895525209606311</v>
       </c>
       <c r="K14">
-        <v>0.9197405666905826</v>
+        <v>0.9197405666905837</v>
       </c>
       <c r="L14">
-        <v>0.8831470197539288</v>
+        <v>0.8831470197539303</v>
       </c>
       <c r="M14">
-        <v>0.8232127512855234</v>
+        <v>0.8232127512855252</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8556489968000478</v>
+        <v>0.8556489968000555</v>
       </c>
       <c r="D15">
-        <v>0.9051733453678694</v>
+        <v>0.9051733453678753</v>
       </c>
       <c r="E15">
-        <v>0.8682307865144103</v>
+        <v>0.8682307865144177</v>
       </c>
       <c r="F15">
-        <v>0.8074281860974072</v>
+        <v>0.8074281860974156</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>0.9906046720608532</v>
+        <v>0.9906046720608566</v>
       </c>
       <c r="J15">
-        <v>0.8923629835051919</v>
+        <v>0.8923629835051993</v>
       </c>
       <c r="K15">
-        <v>0.9220528376183257</v>
+        <v>0.9220528376183316</v>
       </c>
       <c r="L15">
-        <v>0.8860648727782052</v>
+        <v>0.8860648727782126</v>
       </c>
       <c r="M15">
-        <v>0.8270994847665337</v>
+        <v>0.8270994847665419</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8732254795196129</v>
+        <v>0.8732254795196144</v>
       </c>
       <c r="D16">
-        <v>0.9185076703742692</v>
+        <v>0.9185076703742705</v>
       </c>
       <c r="E16">
-        <v>0.8849809248648846</v>
+        <v>0.8849809248648859</v>
       </c>
       <c r="F16">
-        <v>0.8296144071136222</v>
+        <v>0.8296144071136236</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>0.9970152491150319</v>
+        <v>0.9970152491150327</v>
       </c>
       <c r="J16">
-        <v>0.9074627512488692</v>
+        <v>0.9074627512488708</v>
       </c>
       <c r="K16">
-        <v>0.934481020555221</v>
+        <v>0.934481020555222</v>
       </c>
       <c r="L16">
-        <v>0.9017478012559079</v>
+        <v>0.9017478012559094</v>
       </c>
       <c r="M16">
-        <v>0.8478853880821013</v>
+        <v>0.8478853880821028</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8832115373531593</v>
+        <v>0.8832115373531573</v>
       </c>
       <c r="D17">
-        <v>0.9260998041059896</v>
+        <v>0.9260998041059882</v>
       </c>
       <c r="E17">
-        <v>0.8945073967376602</v>
+        <v>0.894507396737658</v>
       </c>
       <c r="F17">
-        <v>0.8421372675658284</v>
+        <v>0.8421372675658263</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.000651609967439</v>
       </c>
       <c r="J17">
-        <v>0.9160368467196782</v>
+        <v>0.9160368467196761</v>
       </c>
       <c r="K17">
-        <v>0.9415407624155173</v>
+        <v>0.9415407624155158</v>
       </c>
       <c r="L17">
-        <v>0.910657851173266</v>
+        <v>0.9106578511732638</v>
       </c>
       <c r="M17">
-        <v>0.8596242432481473</v>
+        <v>0.8596242432481452</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8887342668152474</v>
+        <v>0.8887342668152447</v>
       </c>
       <c r="D18">
-        <v>0.9303031081255415</v>
+        <v>0.9303031081255396</v>
       </c>
       <c r="E18">
-        <v>0.8997789635507295</v>
+        <v>0.899778963550727</v>
       </c>
       <c r="F18">
-        <v>0.8490403696189009</v>
+        <v>0.8490403696188982</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.002660256084312</v>
+        <v>1.002660256084311</v>
       </c>
       <c r="J18">
-        <v>0.9207769252997129</v>
+        <v>0.9207769252997103</v>
       </c>
       <c r="K18">
-        <v>0.9454440877223294</v>
+        <v>0.9454440877223276</v>
       </c>
       <c r="L18">
-        <v>0.9155852271106818</v>
+        <v>0.9155852271106791</v>
       </c>
       <c r="M18">
-        <v>0.8660966139066476</v>
+        <v>0.8660966139066449</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8905714155011456</v>
+        <v>0.8905714155011468</v>
       </c>
       <c r="D19">
-        <v>0.9317020150424336</v>
+        <v>0.9317020150424348</v>
       </c>
       <c r="E19">
-        <v>0.9015330314223465</v>
+        <v>0.901533031422348</v>
       </c>
       <c r="F19">
-        <v>0.8513333648520746</v>
+        <v>0.8513333648520758</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.003328000036811</v>
+        <v>1.003328000036812</v>
       </c>
       <c r="J19">
-        <v>0.9223534181394885</v>
+        <v>0.9223534181394897</v>
       </c>
       <c r="K19">
-        <v>0.9467423228305817</v>
+        <v>0.9467423228305828</v>
       </c>
       <c r="L19">
-        <v>0.9172242672695964</v>
+        <v>0.9172242672695977</v>
       </c>
       <c r="M19">
-        <v>0.8682467179324476</v>
+        <v>0.8682467179324489</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8821726921612691</v>
+        <v>0.8821726921612678</v>
       </c>
       <c r="D20">
-        <v>0.92530949554181</v>
+        <v>0.925309495541809</v>
       </c>
       <c r="E20">
-        <v>0.8935160340298356</v>
+        <v>0.893516034029834</v>
       </c>
       <c r="F20">
-        <v>0.8408370320133481</v>
+        <v>0.8408370320133469</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.000273569779865</v>
+        <v>1.000273569779864</v>
       </c>
       <c r="J20">
-        <v>0.9151450734141972</v>
+        <v>0.9151450734141959</v>
       </c>
       <c r="K20">
-        <v>0.9408064378077456</v>
+        <v>0.9408064378077445</v>
       </c>
       <c r="L20">
-        <v>0.9097309673401394</v>
+        <v>0.9097309673401381</v>
       </c>
       <c r="M20">
-        <v>0.8584052418586129</v>
+        <v>0.8584052418586113</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1149,28 +1149,28 @@
         <v>0.9014907740821936</v>
       </c>
       <c r="E21">
-        <v>0.8635999542077839</v>
+        <v>0.863599954207784</v>
       </c>
       <c r="F21">
-        <v>0.8012524485945283</v>
+        <v>0.8012524485945287</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>0.9888292496274992</v>
+        <v>0.988829249627499</v>
       </c>
       <c r="J21">
-        <v>0.8881831899600585</v>
+        <v>0.8881831899600587</v>
       </c>
       <c r="K21">
-        <v>0.9186140976582967</v>
+        <v>0.9186140976582969</v>
       </c>
       <c r="L21">
         <v>0.8817254931905343</v>
       </c>
       <c r="M21">
-        <v>0.8213168116224242</v>
+        <v>0.8213168116224245</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8261448466109388</v>
+        <v>0.8261448466109387</v>
       </c>
       <c r="D22">
         <v>0.8828868220561142</v>
       </c>
       <c r="E22">
-        <v>0.8401657047562514</v>
+        <v>0.8401657047562515</v>
       </c>
       <c r="F22">
-        <v>0.7696727349883218</v>
+        <v>0.7696727349883214</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>0.9798298899377584</v>
       </c>
       <c r="J22">
-        <v>0.8669980480118001</v>
+        <v>0.8669980480117998</v>
       </c>
       <c r="K22">
-        <v>0.9011996960940343</v>
+        <v>0.9011996960940342</v>
       </c>
       <c r="L22">
         <v>0.8597432774277275</v>
       </c>
       <c r="M22">
-        <v>0.7917766453718184</v>
+        <v>0.7917766453718179</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8398496499193618</v>
+        <v>0.8398496499193641</v>
       </c>
       <c r="D23">
-        <v>0.8932226195965274</v>
+        <v>0.8932226195965289</v>
       </c>
       <c r="E23">
-        <v>0.8531937808071156</v>
+        <v>0.8531937808071178</v>
       </c>
       <c r="F23">
-        <v>0.7873003940965518</v>
+        <v>0.7873003940965541</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>0.9848356903034848</v>
+        <v>0.9848356903034857</v>
       </c>
       <c r="J23">
-        <v>0.8787825580931397</v>
+        <v>0.8787825580931413</v>
       </c>
       <c r="K23">
-        <v>0.9108833299680881</v>
+        <v>0.9108833299680895</v>
       </c>
       <c r="L23">
-        <v>0.8719687655162315</v>
+        <v>0.8719687655162335</v>
       </c>
       <c r="M23">
-        <v>0.8082592045918311</v>
+        <v>0.8082592045918333</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8826430180449865</v>
+        <v>0.8826430180449861</v>
       </c>
       <c r="D24">
-        <v>0.9256672851998563</v>
+        <v>0.9256672851998564</v>
       </c>
       <c r="E24">
-        <v>0.8939648533614146</v>
+        <v>0.8939648533614145</v>
       </c>
       <c r="F24">
-        <v>0.8414257692795226</v>
+        <v>0.8414257692795224</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.000444731098276</v>
       </c>
       <c r="J24">
-        <v>0.9155488197098802</v>
+        <v>0.9155488197098799</v>
       </c>
       <c r="K24">
         <v>0.9411388986617837</v>
       </c>
       <c r="L24">
-        <v>0.9101506048478822</v>
+        <v>0.910150604847882</v>
       </c>
       <c r="M24">
-        <v>0.858957192515321</v>
+        <v>0.8589571925153207</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9202543335395451</v>
+        <v>0.9202543335395457</v>
       </c>
       <c r="D25">
-        <v>0.9543435175801904</v>
+        <v>0.9543435175801908</v>
       </c>
       <c r="E25">
-        <v>0.9299052118080245</v>
+        <v>0.9299052118080251</v>
       </c>
       <c r="F25">
-        <v>0.8881813006908623</v>
+        <v>0.888181300690863</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.014077659714406</v>
       </c>
       <c r="J25">
-        <v>0.947799507463717</v>
+        <v>0.9477995074637173</v>
       </c>
       <c r="K25">
-        <v>0.9676945080445789</v>
+        <v>0.9676945080445791</v>
       </c>
       <c r="L25">
-        <v>0.9436987299380352</v>
+        <v>0.9436987299380354</v>
       </c>
       <c r="M25">
-        <v>0.9028048935722917</v>
+        <v>0.9028048935722922</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_33/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_33/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9450473962719433</v>
+        <v>0.9450473962719445</v>
       </c>
       <c r="D2">
-        <v>0.9732956139702327</v>
+        <v>0.973295613970234</v>
       </c>
       <c r="E2">
-        <v>0.9536473373018264</v>
+        <v>0.9536473373018276</v>
       </c>
       <c r="F2">
-        <v>0.9187313760853548</v>
+        <v>0.918731376085356</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.022977511773385</v>
+        <v>1.022977511773386</v>
       </c>
       <c r="J2">
-        <v>0.9690058732709871</v>
+        <v>0.9690058732709883</v>
       </c>
       <c r="K2">
-        <v>0.9851399609852893</v>
+        <v>0.9851399609852906</v>
       </c>
       <c r="L2">
-        <v>0.9657925752090167</v>
+        <v>0.9657925752090181</v>
       </c>
       <c r="M2">
-        <v>0.9314523839344072</v>
+        <v>0.9314523839344083</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9610515116675987</v>
+        <v>0.9610515116676025</v>
       </c>
       <c r="D3">
-        <v>0.9855381026909119</v>
+        <v>0.9855381026909151</v>
       </c>
       <c r="E3">
-        <v>0.9689933280244466</v>
+        <v>0.9689933280244508</v>
       </c>
       <c r="F3">
-        <v>0.9383755862309032</v>
+        <v>0.9383755862309068</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.028667993723456</v>
+        <v>1.028667993723458</v>
       </c>
       <c r="J3">
-        <v>0.9826633614452208</v>
+        <v>0.9826633614452245</v>
       </c>
       <c r="K3">
-        <v>0.9963594327456101</v>
+        <v>0.9963594327456132</v>
       </c>
       <c r="L3">
-        <v>0.9800389443140378</v>
+        <v>0.980038944314042</v>
       </c>
       <c r="M3">
-        <v>0.9498628033281702</v>
+        <v>0.9498628033281739</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9706860200718046</v>
+        <v>0.9706860200718025</v>
       </c>
       <c r="D4">
-        <v>0.9929080803174508</v>
+        <v>0.9929080803174489</v>
       </c>
       <c r="E4">
-        <v>0.9782390967051841</v>
+        <v>0.9782390967051818</v>
       </c>
       <c r="F4">
-        <v>0.9501813473182023</v>
+        <v>0.9501813473182008</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.03206761821529</v>
+        <v>1.032067618215289</v>
       </c>
       <c r="J4">
-        <v>0.9908705132723963</v>
+        <v>0.9908705132723945</v>
       </c>
       <c r="K4">
-        <v>1.003092858941845</v>
+        <v>1.003092858941844</v>
       </c>
       <c r="L4">
-        <v>0.9886074511639095</v>
+        <v>0.9886074511639075</v>
       </c>
       <c r="M4">
-        <v>0.9609207061363998</v>
+        <v>0.9609207061363985</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9745862654965112</v>
+        <v>0.9745862654965135</v>
       </c>
       <c r="D5">
-        <v>0.9958911248093949</v>
+        <v>0.9958911248093973</v>
       </c>
       <c r="E5">
-        <v>0.9819835428252042</v>
+        <v>0.9819835428252066</v>
       </c>
       <c r="F5">
-        <v>0.9549573517623098</v>
+        <v>0.9549573517623126</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,16 +553,16 @@
         <v>1.033437484224139</v>
       </c>
       <c r="J5">
-        <v>0.994189383237837</v>
+        <v>0.9941893832378393</v>
       </c>
       <c r="K5">
-        <v>1.005813542350438</v>
+        <v>1.005813542350441</v>
       </c>
       <c r="L5">
-        <v>0.9920741885370874</v>
+        <v>0.9920741885370895</v>
       </c>
       <c r="M5">
-        <v>0.9653924706621491</v>
+        <v>0.9653924706621516</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9752328940241982</v>
+        <v>0.9752328940241949</v>
       </c>
       <c r="D6">
-        <v>0.9963856492323031</v>
+        <v>0.9963856492323003</v>
       </c>
       <c r="E6">
-        <v>0.982604428065707</v>
+        <v>0.9826044280657035</v>
       </c>
       <c r="F6">
-        <v>0.9557490245945105</v>
+        <v>0.9557490245945069</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.033664218216169</v>
+        <v>1.033664218216167</v>
       </c>
       <c r="J6">
-        <v>0.994739414425425</v>
+        <v>0.9947394144254218</v>
       </c>
       <c r="K6">
-        <v>1.006264301687344</v>
+        <v>1.006264301687341</v>
       </c>
       <c r="L6">
-        <v>0.9926488267079013</v>
+        <v>0.9926488267078978</v>
       </c>
       <c r="M6">
-        <v>0.9661336087119844</v>
+        <v>0.9661336087119807</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9707386990990262</v>
+        <v>0.9707386990990232</v>
       </c>
       <c r="D7">
-        <v>0.9929483735250412</v>
+        <v>0.9929483735250386</v>
       </c>
       <c r="E7">
-        <v>0.9782896654096257</v>
+        <v>0.978289665409622</v>
       </c>
       <c r="F7">
-        <v>0.9502458658052964</v>
+        <v>0.9502458658052934</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.03208614599714</v>
       </c>
       <c r="J7">
-        <v>0.9909153541046752</v>
+        <v>0.9909153541046724</v>
       </c>
       <c r="K7">
-        <v>1.003129626833261</v>
+        <v>1.003129626833258</v>
       </c>
       <c r="L7">
-        <v>0.9886542829348702</v>
+        <v>0.9886542829348669</v>
       </c>
       <c r="M7">
-        <v>0.9609811216303634</v>
+        <v>0.9609811216303605</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9506207888116955</v>
+        <v>0.9506207888116948</v>
       </c>
       <c r="D8">
-        <v>0.9775587039782878</v>
+        <v>0.9775587039782873</v>
       </c>
       <c r="E8">
-        <v>0.9589897674153458</v>
+        <v>0.9589897674153448</v>
       </c>
       <c r="F8">
-        <v>0.9255779591628978</v>
+        <v>0.9255779591628966</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.024964783265854</v>
+        <v>1.024964783265853</v>
       </c>
       <c r="J8">
-        <v>0.9737652271620487</v>
+        <v>0.9737652271620478</v>
       </c>
       <c r="K8">
-        <v>0.9890514891482455</v>
+        <v>0.9890514891482448</v>
       </c>
       <c r="L8">
-        <v>0.9707554760697522</v>
+        <v>0.9707554760697511</v>
       </c>
       <c r="M8">
-        <v>0.937870218519695</v>
+        <v>0.937870218519694</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9082211425722685</v>
+        <v>0.9082211425722659</v>
       </c>
       <c r="D9">
-        <v>0.9451567848942961</v>
+        <v>0.9451567848942939</v>
       </c>
       <c r="E9">
-        <v>0.9183963075436509</v>
+        <v>0.9183963075436482</v>
       </c>
       <c r="F9">
-        <v>0.8732853858809253</v>
+        <v>0.8732853858809229</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.009729843188052</v>
+        <v>1.009729843188051</v>
       </c>
       <c r="J9">
-        <v>0.937490201389414</v>
+        <v>0.9374902013894116</v>
       </c>
       <c r="K9">
-        <v>0.9592070804898704</v>
+        <v>0.959207080489868</v>
       </c>
       <c r="L9">
-        <v>0.9329683577771332</v>
+        <v>0.9329683577771307</v>
       </c>
       <c r="M9">
-        <v>0.8888338883329119</v>
+        <v>0.8888338883329094</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8720514885321776</v>
+        <v>0.8720514885321774</v>
       </c>
       <c r="D10">
-        <v>0.9176158495323904</v>
+        <v>0.9176158495323899</v>
       </c>
       <c r="E10">
-        <v>0.8838614299708858</v>
+        <v>0.8838614299708855</v>
       </c>
       <c r="F10">
-        <v>0.8281385043397527</v>
+        <v>0.8281385043397524</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>0.9965874262087131</v>
+        <v>0.9965874262087129</v>
       </c>
       <c r="J10">
-        <v>0.9064545057443445</v>
+        <v>0.9064545057443443</v>
       </c>
       <c r="K10">
-        <v>0.9336509481426621</v>
+        <v>0.9336509481426618</v>
       </c>
       <c r="L10">
-        <v>0.9007002844964493</v>
+        <v>0.9007002844964492</v>
       </c>
       <c r="M10">
-        <v>0.8465021485637221</v>
+        <v>0.8465021485637217</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -766,13 +766,13 @@
         <v>0.8530094837334804</v>
       </c>
       <c r="D11">
-        <v>0.903174341356634</v>
+        <v>0.9031743413566341</v>
       </c>
       <c r="E11">
-        <v>0.8657173285548107</v>
+        <v>0.8657173285548109</v>
       </c>
       <c r="F11">
-        <v>0.8040786205616692</v>
+        <v>0.8040786205616691</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -784,13 +784,13 @@
         <v>0.8900946094233217</v>
       </c>
       <c r="K11">
-        <v>0.9201865353815207</v>
+        <v>0.9201865353815208</v>
       </c>
       <c r="L11">
-        <v>0.8837097944066959</v>
+        <v>0.8837097944066961</v>
       </c>
       <c r="M11">
-        <v>0.8239629065221731</v>
+        <v>0.823962906522173</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8451566781997024</v>
+        <v>0.8451566781997092</v>
       </c>
       <c r="D12">
-        <v>0.897232866718027</v>
+        <v>0.8972328667180326</v>
       </c>
       <c r="E12">
-        <v>0.8582426343944622</v>
+        <v>0.8582426343944689</v>
       </c>
       <c r="F12">
-        <v>0.7940829275700679</v>
+        <v>0.7940829275700758</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>0.9867739053465722</v>
+        <v>0.9867739053465748</v>
       </c>
       <c r="J12">
-        <v>0.8833449176310548</v>
+        <v>0.8833449176310609</v>
       </c>
       <c r="K12">
-        <v>0.9146346706682004</v>
+        <v>0.9146346706682057</v>
       </c>
       <c r="L12">
-        <v>0.8767034628597428</v>
+        <v>0.8767034628597491</v>
       </c>
       <c r="M12">
-        <v>0.814605735129082</v>
+        <v>0.8146057351290894</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8468835921371654</v>
+        <v>0.8468835921371648</v>
       </c>
       <c r="D13">
-        <v>0.8985387032412659</v>
+        <v>0.8985387032412657</v>
       </c>
       <c r="E13">
-        <v>0.8598859992791714</v>
+        <v>0.8598859992791712</v>
       </c>
       <c r="F13">
-        <v>0.7962851160691699</v>
+        <v>0.7962851160691693</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>0.9874045337629759</v>
+        <v>0.987404533762976</v>
       </c>
       <c r="J13">
-        <v>0.8848293754794682</v>
+        <v>0.8848293754794677</v>
       </c>
       <c r="K13">
-        <v>0.9158554939750969</v>
+        <v>0.9158554939750966</v>
       </c>
       <c r="L13">
-        <v>0.8782441907665334</v>
+        <v>0.878244190766533</v>
       </c>
       <c r="M13">
-        <v>0.816666851906133</v>
+        <v>0.8166668519061322</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8523787337643394</v>
+        <v>0.8523787337643379</v>
       </c>
       <c r="D14">
-        <v>0.9026967916738053</v>
+        <v>0.9026967916738045</v>
       </c>
       <c r="E14">
-        <v>0.8651167781546266</v>
+        <v>0.8651167781546252</v>
       </c>
       <c r="F14">
-        <v>0.8032774518581486</v>
+        <v>0.8032774518581467</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>0.9894109166123953</v>
+        <v>0.989410916612395</v>
       </c>
       <c r="J14">
-        <v>0.8895525209606311</v>
+        <v>0.8895525209606298</v>
       </c>
       <c r="K14">
-        <v>0.9197405666905837</v>
+        <v>0.9197405666905826</v>
       </c>
       <c r="L14">
-        <v>0.8831470197539303</v>
+        <v>0.8831470197539288</v>
       </c>
       <c r="M14">
-        <v>0.8232127512855252</v>
+        <v>0.8232127512855234</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C15">
-        <v>0.8556489968000555</v>
+        <v>0.8556489968000478</v>
       </c>
       <c r="D15">
-        <v>0.9051733453678753</v>
+        <v>0.9051733453678694</v>
       </c>
       <c r="E15">
-        <v>0.8682307865144177</v>
+        <v>0.8682307865144103</v>
       </c>
       <c r="F15">
-        <v>0.8074281860974156</v>
+        <v>0.8074281860974072</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>0.9906046720608566</v>
+        <v>0.9906046720608532</v>
       </c>
       <c r="J15">
-        <v>0.8923629835051993</v>
+        <v>0.8923629835051919</v>
       </c>
       <c r="K15">
-        <v>0.9220528376183316</v>
+        <v>0.9220528376183257</v>
       </c>
       <c r="L15">
-        <v>0.8860648727782126</v>
+        <v>0.8860648727782052</v>
       </c>
       <c r="M15">
-        <v>0.8270994847665419</v>
+        <v>0.8270994847665337</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8732254795196144</v>
+        <v>0.8732254795196129</v>
       </c>
       <c r="D16">
-        <v>0.9185076703742705</v>
+        <v>0.9185076703742692</v>
       </c>
       <c r="E16">
-        <v>0.8849809248648859</v>
+        <v>0.8849809248648846</v>
       </c>
       <c r="F16">
-        <v>0.8296144071136236</v>
+        <v>0.8296144071136222</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>0.9970152491150327</v>
+        <v>0.9970152491150319</v>
       </c>
       <c r="J16">
-        <v>0.9074627512488708</v>
+        <v>0.9074627512488692</v>
       </c>
       <c r="K16">
-        <v>0.934481020555222</v>
+        <v>0.934481020555221</v>
       </c>
       <c r="L16">
-        <v>0.9017478012559094</v>
+        <v>0.9017478012559079</v>
       </c>
       <c r="M16">
-        <v>0.8478853880821028</v>
+        <v>0.8478853880821013</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8832115373531573</v>
+        <v>0.8832115373531593</v>
       </c>
       <c r="D17">
-        <v>0.9260998041059882</v>
+        <v>0.9260998041059896</v>
       </c>
       <c r="E17">
-        <v>0.894507396737658</v>
+        <v>0.8945073967376602</v>
       </c>
       <c r="F17">
-        <v>0.8421372675658263</v>
+        <v>0.8421372675658284</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.000651609967439</v>
       </c>
       <c r="J17">
-        <v>0.9160368467196761</v>
+        <v>0.9160368467196782</v>
       </c>
       <c r="K17">
-        <v>0.9415407624155158</v>
+        <v>0.9415407624155173</v>
       </c>
       <c r="L17">
-        <v>0.9106578511732638</v>
+        <v>0.910657851173266</v>
       </c>
       <c r="M17">
-        <v>0.8596242432481452</v>
+        <v>0.8596242432481473</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8887342668152447</v>
+        <v>0.8887342668152474</v>
       </c>
       <c r="D18">
-        <v>0.9303031081255396</v>
+        <v>0.9303031081255415</v>
       </c>
       <c r="E18">
-        <v>0.899778963550727</v>
+        <v>0.8997789635507295</v>
       </c>
       <c r="F18">
-        <v>0.8490403696188982</v>
+        <v>0.8490403696189009</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.002660256084311</v>
+        <v>1.002660256084312</v>
       </c>
       <c r="J18">
-        <v>0.9207769252997103</v>
+        <v>0.9207769252997129</v>
       </c>
       <c r="K18">
-        <v>0.9454440877223276</v>
+        <v>0.9454440877223294</v>
       </c>
       <c r="L18">
-        <v>0.9155852271106791</v>
+        <v>0.9155852271106818</v>
       </c>
       <c r="M18">
-        <v>0.8660966139066449</v>
+        <v>0.8660966139066476</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8905714155011468</v>
+        <v>0.8905714155011456</v>
       </c>
       <c r="D19">
-        <v>0.9317020150424348</v>
+        <v>0.9317020150424336</v>
       </c>
       <c r="E19">
-        <v>0.901533031422348</v>
+        <v>0.9015330314223465</v>
       </c>
       <c r="F19">
-        <v>0.8513333648520758</v>
+        <v>0.8513333648520746</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.003328000036812</v>
+        <v>1.003328000036811</v>
       </c>
       <c r="J19">
-        <v>0.9223534181394897</v>
+        <v>0.9223534181394885</v>
       </c>
       <c r="K19">
-        <v>0.9467423228305828</v>
+        <v>0.9467423228305817</v>
       </c>
       <c r="L19">
-        <v>0.9172242672695977</v>
+        <v>0.9172242672695964</v>
       </c>
       <c r="M19">
-        <v>0.8682467179324489</v>
+        <v>0.8682467179324476</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8821726921612678</v>
+        <v>0.8821726921612691</v>
       </c>
       <c r="D20">
-        <v>0.925309495541809</v>
+        <v>0.92530949554181</v>
       </c>
       <c r="E20">
-        <v>0.893516034029834</v>
+        <v>0.8935160340298356</v>
       </c>
       <c r="F20">
-        <v>0.8408370320133469</v>
+        <v>0.8408370320133481</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.000273569779864</v>
+        <v>1.000273569779865</v>
       </c>
       <c r="J20">
-        <v>0.9151450734141959</v>
+        <v>0.9151450734141972</v>
       </c>
       <c r="K20">
-        <v>0.9408064378077445</v>
+        <v>0.9408064378077456</v>
       </c>
       <c r="L20">
-        <v>0.9097309673401381</v>
+        <v>0.9097309673401394</v>
       </c>
       <c r="M20">
-        <v>0.8584052418586113</v>
+        <v>0.8584052418586129</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1149,28 +1149,28 @@
         <v>0.9014907740821936</v>
       </c>
       <c r="E21">
-        <v>0.863599954207784</v>
+        <v>0.8635999542077839</v>
       </c>
       <c r="F21">
-        <v>0.8012524485945287</v>
+        <v>0.8012524485945283</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>0.988829249627499</v>
+        <v>0.9888292496274992</v>
       </c>
       <c r="J21">
-        <v>0.8881831899600587</v>
+        <v>0.8881831899600585</v>
       </c>
       <c r="K21">
-        <v>0.9186140976582969</v>
+        <v>0.9186140976582967</v>
       </c>
       <c r="L21">
         <v>0.8817254931905343</v>
       </c>
       <c r="M21">
-        <v>0.8213168116224245</v>
+        <v>0.8213168116224242</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8261448466109387</v>
+        <v>0.8261448466109388</v>
       </c>
       <c r="D22">
         <v>0.8828868220561142</v>
       </c>
       <c r="E22">
-        <v>0.8401657047562515</v>
+        <v>0.8401657047562514</v>
       </c>
       <c r="F22">
-        <v>0.7696727349883214</v>
+        <v>0.7696727349883218</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>0.9798298899377584</v>
       </c>
       <c r="J22">
-        <v>0.8669980480117998</v>
+        <v>0.8669980480118001</v>
       </c>
       <c r="K22">
-        <v>0.9011996960940342</v>
+        <v>0.9011996960940343</v>
       </c>
       <c r="L22">
         <v>0.8597432774277275</v>
       </c>
       <c r="M22">
-        <v>0.7917766453718179</v>
+        <v>0.7917766453718184</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8398496499193641</v>
+        <v>0.8398496499193618</v>
       </c>
       <c r="D23">
-        <v>0.8932226195965289</v>
+        <v>0.8932226195965274</v>
       </c>
       <c r="E23">
-        <v>0.8531937808071178</v>
+        <v>0.8531937808071156</v>
       </c>
       <c r="F23">
-        <v>0.7873003940965541</v>
+        <v>0.7873003940965518</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>0.9848356903034857</v>
+        <v>0.9848356903034848</v>
       </c>
       <c r="J23">
-        <v>0.8787825580931413</v>
+        <v>0.8787825580931397</v>
       </c>
       <c r="K23">
-        <v>0.9108833299680895</v>
+        <v>0.9108833299680881</v>
       </c>
       <c r="L23">
-        <v>0.8719687655162335</v>
+        <v>0.8719687655162315</v>
       </c>
       <c r="M23">
-        <v>0.8082592045918333</v>
+        <v>0.8082592045918311</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8826430180449861</v>
+        <v>0.8826430180449865</v>
       </c>
       <c r="D24">
-        <v>0.9256672851998564</v>
+        <v>0.9256672851998563</v>
       </c>
       <c r="E24">
-        <v>0.8939648533614145</v>
+        <v>0.8939648533614146</v>
       </c>
       <c r="F24">
-        <v>0.8414257692795224</v>
+        <v>0.8414257692795226</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.000444731098276</v>
       </c>
       <c r="J24">
-        <v>0.9155488197098799</v>
+        <v>0.9155488197098802</v>
       </c>
       <c r="K24">
         <v>0.9411388986617837</v>
       </c>
       <c r="L24">
-        <v>0.910150604847882</v>
+        <v>0.9101506048478822</v>
       </c>
       <c r="M24">
-        <v>0.8589571925153207</v>
+        <v>0.858957192515321</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9202543335395457</v>
+        <v>0.9202543335395451</v>
       </c>
       <c r="D25">
-        <v>0.9543435175801908</v>
+        <v>0.9543435175801904</v>
       </c>
       <c r="E25">
-        <v>0.9299052118080251</v>
+        <v>0.9299052118080245</v>
       </c>
       <c r="F25">
-        <v>0.888181300690863</v>
+        <v>0.8881813006908623</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.014077659714406</v>
       </c>
       <c r="J25">
-        <v>0.9477995074637173</v>
+        <v>0.947799507463717</v>
       </c>
       <c r="K25">
-        <v>0.9676945080445791</v>
+        <v>0.9676945080445789</v>
       </c>
       <c r="L25">
-        <v>0.9436987299380354</v>
+        <v>0.9436987299380352</v>
       </c>
       <c r="M25">
-        <v>0.9028048935722922</v>
+        <v>0.9028048935722917</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_33/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_33/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9450473962719445</v>
+        <v>0.9486638270336315</v>
       </c>
       <c r="D2">
-        <v>0.973295613970234</v>
+        <v>0.9760166516043101</v>
       </c>
       <c r="E2">
-        <v>0.9536473373018276</v>
+        <v>0.9572322869633905</v>
       </c>
       <c r="F2">
-        <v>0.918731376085356</v>
+        <v>0.9225733493318391</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.022977511773386</v>
+        <v>1.024356538488652</v>
       </c>
       <c r="J2">
-        <v>0.9690058732709883</v>
+        <v>0.9724964523501451</v>
       </c>
       <c r="K2">
-        <v>0.9851399609852906</v>
+        <v>0.9878205429552297</v>
       </c>
       <c r="L2">
-        <v>0.9657925752090181</v>
+        <v>0.9693214480578304</v>
       </c>
       <c r="M2">
-        <v>0.9314523839344083</v>
+        <v>0.9352282453397499</v>
+      </c>
+      <c r="N2">
+        <v>0.9738775088593846</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9610515116676025</v>
+        <v>0.9645795293091624</v>
       </c>
       <c r="D3">
-        <v>0.9855381026909151</v>
+        <v>0.9881956779336676</v>
       </c>
       <c r="E3">
-        <v>0.9689933280244508</v>
+        <v>0.9724970525954196</v>
       </c>
       <c r="F3">
-        <v>0.9383755862309068</v>
+        <v>0.9420932971431606</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.028667993723458</v>
+        <v>1.030016931093661</v>
       </c>
       <c r="J3">
-        <v>0.9826633614452245</v>
+        <v>0.9860846832813338</v>
       </c>
       <c r="K3">
-        <v>0.9963594327456132</v>
+        <v>0.9989818591297551</v>
       </c>
       <c r="L3">
-        <v>0.980038944314042</v>
+        <v>0.9834943689617588</v>
       </c>
       <c r="M3">
-        <v>0.9498628033281739</v>
+        <v>0.9535249472818051</v>
+      </c>
+      <c r="N3">
+        <v>0.9874850366370873</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9706860200718025</v>
+        <v>0.9741677792294492</v>
       </c>
       <c r="D4">
-        <v>0.9929080803174489</v>
+        <v>0.9955325940009337</v>
       </c>
       <c r="E4">
-        <v>0.9782390967051818</v>
+        <v>0.9817004615628309</v>
       </c>
       <c r="F4">
-        <v>0.9501813473182008</v>
+        <v>0.9538336959728976</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.032067618215289</v>
+        <v>1.03340103785772</v>
       </c>
       <c r="J4">
-        <v>0.9908705132723945</v>
+        <v>0.9942561816530114</v>
       </c>
       <c r="K4">
-        <v>1.003092858941844</v>
+        <v>1.005685237404742</v>
       </c>
       <c r="L4">
-        <v>0.9886074511639075</v>
+        <v>0.9920248814571031</v>
       </c>
       <c r="M4">
-        <v>0.9609207061363985</v>
+        <v>0.9645232056806743</v>
+      </c>
+      <c r="N4">
+        <v>0.9956681394737367</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9745862654965135</v>
+        <v>0.9780506509488966</v>
       </c>
       <c r="D5">
-        <v>0.9958911248093973</v>
+        <v>0.9985032571478599</v>
       </c>
       <c r="E5">
-        <v>0.9819835428252066</v>
+        <v>0.9854290293448339</v>
       </c>
       <c r="F5">
-        <v>0.9549573517623126</v>
+        <v>0.9585850575323054</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.033437484224139</v>
+        <v>1.034765130462804</v>
       </c>
       <c r="J5">
-        <v>0.9941893832378393</v>
+        <v>0.9975617937795892</v>
       </c>
       <c r="K5">
-        <v>1.005813542350441</v>
+        <v>1.008394725523751</v>
       </c>
       <c r="L5">
-        <v>0.9920741885370895</v>
+        <v>0.9954774479720276</v>
       </c>
       <c r="M5">
-        <v>0.9653924706621516</v>
+        <v>0.968972524380192</v>
+      </c>
+      <c r="N5">
+        <v>0.9989784459486933</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9752328940241949</v>
+        <v>0.9786944712257059</v>
       </c>
       <c r="D6">
-        <v>0.9963856492323003</v>
+        <v>0.9989957824550681</v>
       </c>
       <c r="E6">
-        <v>0.9826044280657035</v>
+        <v>0.9860473498372285</v>
       </c>
       <c r="F6">
-        <v>0.9557490245945069</v>
+        <v>0.9593727412797836</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.033664218216167</v>
+        <v>1.034990934529319</v>
       </c>
       <c r="J6">
-        <v>0.9947394144254218</v>
+        <v>0.9981096897160655</v>
       </c>
       <c r="K6">
-        <v>1.006264301687341</v>
+        <v>1.008843680609391</v>
       </c>
       <c r="L6">
-        <v>0.9926488267078978</v>
+        <v>0.9960498013462658</v>
       </c>
       <c r="M6">
-        <v>0.9661336087119807</v>
+        <v>0.9697100314513584</v>
+      </c>
+      <c r="N6">
+        <v>0.9995271199602441</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9707386990990232</v>
+        <v>0.9742202185558457</v>
       </c>
       <c r="D7">
-        <v>0.9929483735250386</v>
+        <v>0.9955727162364595</v>
       </c>
       <c r="E7">
-        <v>0.978289665409622</v>
+        <v>0.9817508110724852</v>
       </c>
       <c r="F7">
-        <v>0.9502458658052934</v>
+        <v>0.9538978748675351</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.03208614599714</v>
+        <v>1.03341948575941</v>
       </c>
       <c r="J7">
-        <v>0.9909153541046724</v>
+        <v>0.9943008390326743</v>
       </c>
       <c r="K7">
-        <v>1.003129626833258</v>
+        <v>1.005721850468398</v>
       </c>
       <c r="L7">
-        <v>0.9886542829348669</v>
+        <v>0.9920715173156407</v>
       </c>
       <c r="M7">
-        <v>0.9609811216303605</v>
+        <v>0.9645833116892994</v>
+      </c>
+      <c r="N7">
+        <v>0.9957128602720009</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9506207888116948</v>
+        <v>0.954204677373068</v>
       </c>
       <c r="D8">
-        <v>0.9775587039782873</v>
+        <v>0.9802563502310069</v>
       </c>
       <c r="E8">
-        <v>0.9589897674153448</v>
+        <v>0.9625447860548212</v>
       </c>
       <c r="F8">
-        <v>0.9255779591628966</v>
+        <v>0.9293742689446144</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.024964783265853</v>
+        <v>1.026332681625048</v>
       </c>
       <c r="J8">
-        <v>0.9737652271620478</v>
+        <v>0.9772301701924471</v>
       </c>
       <c r="K8">
-        <v>0.9890514891482448</v>
+        <v>0.9917105742901452</v>
       </c>
       <c r="L8">
-        <v>0.9707554760697511</v>
+        <v>0.9742572070379245</v>
       </c>
       <c r="M8">
-        <v>0.937870218519694</v>
+        <v>0.9416042510077957</v>
+      </c>
+      <c r="N8">
+        <v>0.9786179491239874</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9082211425722659</v>
+        <v>0.9121103236605054</v>
       </c>
       <c r="D9">
-        <v>0.9451567848942939</v>
+        <v>0.9480746808950876</v>
       </c>
       <c r="E9">
-        <v>0.9183963075436482</v>
+        <v>0.9222331884022763</v>
       </c>
       <c r="F9">
-        <v>0.8732853858809229</v>
+        <v>0.8775089852577681</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.009729843188051</v>
+        <v>1.011203576809609</v>
       </c>
       <c r="J9">
-        <v>0.9374902013894116</v>
+        <v>0.941200021643716</v>
       </c>
       <c r="K9">
-        <v>0.959207080489868</v>
+        <v>0.9620704090000043</v>
       </c>
       <c r="L9">
-        <v>0.9329683577771307</v>
+        <v>0.9367279836841041</v>
       </c>
       <c r="M9">
-        <v>0.8888338883329094</v>
+        <v>0.8929603748598162</v>
+      </c>
+      <c r="N9">
+        <v>0.9425366336316016</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8720514885321774</v>
+        <v>0.876347715850482</v>
       </c>
       <c r="D10">
-        <v>0.9176158495323899</v>
+        <v>0.920828543802918</v>
       </c>
       <c r="E10">
-        <v>0.8838614299708855</v>
+        <v>0.8880763147207191</v>
       </c>
       <c r="F10">
-        <v>0.8281385043397524</v>
+        <v>0.832933676366218</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>0.9965874262087129</v>
+        <v>0.9982046982071483</v>
       </c>
       <c r="J10">
-        <v>0.9064545057443443</v>
+        <v>0.9104995757114154</v>
       </c>
       <c r="K10">
-        <v>0.9336509481426618</v>
+        <v>0.936791232527833</v>
       </c>
       <c r="L10">
-        <v>0.9007002844964492</v>
+        <v>0.9048103058478014</v>
       </c>
       <c r="M10">
-        <v>0.8465021485637217</v>
+        <v>0.8511550770521167</v>
+      </c>
+      <c r="N10">
+        <v>0.9117925895446866</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8530094837334804</v>
+        <v>0.8576076127578832</v>
       </c>
       <c r="D11">
-        <v>0.9031743413566341</v>
+        <v>0.9066059001434789</v>
       </c>
       <c r="E11">
-        <v>0.8657173285548109</v>
+        <v>0.8702134385013012</v>
       </c>
       <c r="F11">
-        <v>0.8040786205616691</v>
+        <v>0.8093012061793053</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>0.9896411796520832</v>
+        <v>0.991365623176551</v>
       </c>
       <c r="J11">
-        <v>0.8900946094233217</v>
+        <v>0.8943916161688666</v>
       </c>
       <c r="K11">
-        <v>0.9201865353815208</v>
+        <v>0.9235337335182818</v>
       </c>
       <c r="L11">
-        <v>0.8837097944066961</v>
+        <v>0.888082164044334</v>
       </c>
       <c r="M11">
-        <v>0.823962906522173</v>
+        <v>0.8290096237402751</v>
+      </c>
+      <c r="N11">
+        <v>0.8956617548519787</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8451566781997092</v>
+        <v>0.8499044622814357</v>
       </c>
       <c r="D12">
-        <v>0.8972328667180326</v>
+        <v>0.9007729427287673</v>
       </c>
       <c r="E12">
-        <v>0.8582426343944689</v>
+        <v>0.8628783341886569</v>
       </c>
       <c r="F12">
-        <v>0.7940829275700758</v>
+        <v>0.7995185815174896</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>0.9867739053465748</v>
+        <v>0.9885516002089954</v>
       </c>
       <c r="J12">
-        <v>0.8833449176310609</v>
+        <v>0.8877674861830935</v>
       </c>
       <c r="K12">
-        <v>0.9146346706682057</v>
+        <v>0.9180847190741108</v>
       </c>
       <c r="L12">
-        <v>0.8767034628597491</v>
+        <v>0.8812063883688144</v>
       </c>
       <c r="M12">
-        <v>0.8146057351290894</v>
+        <v>0.8198487114462506</v>
+      </c>
+      <c r="N12">
+        <v>0.8890282178418273</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8468835921371648</v>
+        <v>0.8515969904533084</v>
       </c>
       <c r="D13">
-        <v>0.8985387032412657</v>
+        <v>0.9020538446697314</v>
       </c>
       <c r="E13">
-        <v>0.8598859992791712</v>
+        <v>0.8644896167241514</v>
       </c>
       <c r="F13">
-        <v>0.7962851160691693</v>
+        <v>0.8016717442922022</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>0.987404533762976</v>
+        <v>0.9891699873772586</v>
       </c>
       <c r="J13">
-        <v>0.8848293754794677</v>
+        <v>0.8892230608925553</v>
       </c>
       <c r="K13">
-        <v>0.9158554939750966</v>
+        <v>0.9192818973825507</v>
       </c>
       <c r="L13">
-        <v>0.878244190766533</v>
+        <v>0.8827170938360509</v>
       </c>
       <c r="M13">
-        <v>0.8166668519061322</v>
+        <v>0.8218646741150267</v>
+      </c>
+      <c r="N13">
+        <v>0.8904858596343334</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8523787337643379</v>
+        <v>0.8569882710398596</v>
       </c>
       <c r="D14">
-        <v>0.9026967916738045</v>
+        <v>0.9061366223579571</v>
       </c>
       <c r="E14">
-        <v>0.8651167781546252</v>
+        <v>0.8696235252698022</v>
       </c>
       <c r="F14">
-        <v>0.8032774518581467</v>
+        <v>0.8085162518998928</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>0.989410916612395</v>
+        <v>0.9911394170501571</v>
       </c>
       <c r="J14">
-        <v>0.8895525209606298</v>
+        <v>0.8938590855707026</v>
       </c>
       <c r="K14">
-        <v>0.9197405666905826</v>
+        <v>0.9230955995410353</v>
       </c>
       <c r="L14">
-        <v>0.8831470197539288</v>
+        <v>0.8875293313434218</v>
       </c>
       <c r="M14">
-        <v>0.8232127512855234</v>
+        <v>0.8282744052204575</v>
+      </c>
+      <c r="N14">
+        <v>0.8951284679992831</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8556489968000478</v>
+        <v>0.8602004676327829</v>
       </c>
       <c r="D15">
-        <v>0.9051733453678694</v>
+        <v>0.9085710740518999</v>
       </c>
       <c r="E15">
-        <v>0.8682307865144103</v>
+        <v>0.8726833989002007</v>
       </c>
       <c r="F15">
-        <v>0.8074281860974072</v>
+        <v>0.8125845050226621</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>0.9906046720608532</v>
+        <v>0.9923125280101968</v>
       </c>
       <c r="J15">
-        <v>0.8923629835051919</v>
+        <v>0.8966209253934508</v>
       </c>
       <c r="K15">
-        <v>0.9220528376183257</v>
+        <v>0.9253680033530872</v>
       </c>
       <c r="L15">
-        <v>0.8860648727782052</v>
+        <v>0.8903966003929527</v>
       </c>
       <c r="M15">
-        <v>0.8270994847665337</v>
+        <v>0.8320851549493096</v>
+      </c>
+      <c r="N15">
+        <v>0.8978942299513673</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,40 +992,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C16">
-        <v>0.8732254795196129</v>
+        <v>0.8775054649288763</v>
       </c>
       <c r="D16">
-        <v>0.9185076703742692</v>
+        <v>0.9217085929983689</v>
       </c>
       <c r="E16">
-        <v>0.8849809248648846</v>
+        <v>0.8891806970141357</v>
       </c>
       <c r="F16">
-        <v>0.8296144071136222</v>
+        <v>0.834386675310773</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>0.9970152491150319</v>
+        <v>0.998626767937205</v>
       </c>
       <c r="J16">
-        <v>0.9074627512488692</v>
+        <v>0.9114943305393611</v>
       </c>
       <c r="K16">
-        <v>0.934481020555221</v>
+        <v>0.9376102006072405</v>
       </c>
       <c r="L16">
-        <v>0.9017478012559079</v>
+        <v>0.9058437560790834</v>
       </c>
       <c r="M16">
-        <v>0.8478853880821013</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.8525172134140632</v>
+      </c>
+      <c r="N16">
+        <v>0.912788757038588</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8832115373531593</v>
+        <v>0.8873626860462714</v>
       </c>
       <c r="D17">
-        <v>0.9260998041059896</v>
+        <v>0.9292073671601569</v>
       </c>
       <c r="E17">
-        <v>0.8945073967376602</v>
+        <v>0.8985873649673314</v>
       </c>
       <c r="F17">
-        <v>0.8421372675658284</v>
+        <v>0.8467281658588295</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.000651609967439</v>
+        <v>1.00221755275522</v>
       </c>
       <c r="J17">
-        <v>0.9160368467196782</v>
+        <v>0.9199616967339732</v>
       </c>
       <c r="K17">
-        <v>0.9415407624155173</v>
+        <v>0.9445819869289915</v>
       </c>
       <c r="L17">
-        <v>0.910657851173266</v>
+        <v>0.9146424379127569</v>
       </c>
       <c r="M17">
-        <v>0.8596242432481473</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.8640889666244603</v>
+      </c>
+      <c r="N17">
+        <v>0.9212681478644168</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8887342668152474</v>
+        <v>0.8928207019426906</v>
       </c>
       <c r="D18">
-        <v>0.9303031081255415</v>
+        <v>0.9333637925151309</v>
       </c>
       <c r="E18">
-        <v>0.8997789635507295</v>
+        <v>0.9037988110432964</v>
       </c>
       <c r="F18">
-        <v>0.8490403696189009</v>
+        <v>0.8535403659382902</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.002660256084312</v>
+        <v>1.004203353647616</v>
       </c>
       <c r="J18">
-        <v>0.9207769252997129</v>
+        <v>0.9246483796076594</v>
       </c>
       <c r="K18">
-        <v>0.9454440877223294</v>
+        <v>0.94844123168247</v>
       </c>
       <c r="L18">
-        <v>0.9155852271106818</v>
+        <v>0.9195140346036613</v>
       </c>
       <c r="M18">
-        <v>0.8660966139066476</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.8704775984566649</v>
+      </c>
+      <c r="N18">
+        <v>0.9259614863653539</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8905714155011456</v>
+        <v>0.8946372636541728</v>
       </c>
       <c r="D19">
-        <v>0.9317020150424336</v>
+        <v>0.9347477888982521</v>
       </c>
       <c r="E19">
-        <v>0.9015330314223465</v>
+        <v>0.9055337617880826</v>
       </c>
       <c r="F19">
-        <v>0.8513333648520746</v>
+        <v>0.8558044688804872</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.003328000036811</v>
+        <v>1.004863837779441</v>
       </c>
       <c r="J19">
-        <v>0.9223534181394885</v>
+        <v>0.9262079197949645</v>
       </c>
       <c r="K19">
-        <v>0.9467423228305817</v>
+        <v>0.9497254597366688</v>
       </c>
       <c r="L19">
-        <v>0.9172242672695964</v>
+        <v>0.9211353553505204</v>
       </c>
       <c r="M19">
-        <v>0.8682467179324476</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.8726010896977043</v>
+      </c>
+      <c r="N19">
+        <v>0.9275232412786067</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8821726921612691</v>
+        <v>0.8863365090196045</v>
       </c>
       <c r="D20">
-        <v>0.92530949554181</v>
+        <v>0.9284262367894145</v>
       </c>
       <c r="E20">
-        <v>0.8935160340298356</v>
+        <v>0.8976077759728515</v>
       </c>
       <c r="F20">
-        <v>0.8408370320133481</v>
+        <v>0.8454457400628567</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.000273569779865</v>
+        <v>1.001843988716893</v>
       </c>
       <c r="J20">
-        <v>0.9151450734141972</v>
+        <v>0.9190803938494738</v>
       </c>
       <c r="K20">
-        <v>0.9408064378077456</v>
+        <v>0.9438562997660774</v>
       </c>
       <c r="L20">
-        <v>0.9097309673401394</v>
+        <v>0.9137264866273523</v>
       </c>
       <c r="M20">
-        <v>0.8584052418586129</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.862886372814869</v>
+      </c>
+      <c r="N20">
+        <v>0.9203855934287347</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.850785494932307</v>
+        <v>0.8554243073184278</v>
       </c>
       <c r="D21">
-        <v>0.9014907740821936</v>
+        <v>0.9049518319056987</v>
       </c>
       <c r="E21">
-        <v>0.8635999542077839</v>
+        <v>0.868134000717538</v>
       </c>
       <c r="F21">
-        <v>0.8012524485945283</v>
+        <v>0.8065328781359142</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>0.9888292496274992</v>
+        <v>0.9905681626044623</v>
       </c>
       <c r="J21">
-        <v>0.8881831899600585</v>
+        <v>0.8925142921647337</v>
       </c>
       <c r="K21">
-        <v>0.9186140976582967</v>
+        <v>0.9219892398741467</v>
       </c>
       <c r="L21">
-        <v>0.8817254931905343</v>
+        <v>0.8861333253232843</v>
       </c>
       <c r="M21">
-        <v>0.8213168116224242</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.8264168135879101</v>
+      </c>
+      <c r="N21">
+        <v>0.8937817648324277</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8261448466109388</v>
+        <v>0.8313378922513045</v>
       </c>
       <c r="D22">
-        <v>0.8828868220561142</v>
+        <v>0.8867498089849647</v>
       </c>
       <c r="E22">
-        <v>0.8401657047562514</v>
+        <v>0.8452172538674987</v>
       </c>
       <c r="F22">
-        <v>0.7696727349883218</v>
+        <v>0.7757468456852624</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>0.9798298899377584</v>
+        <v>0.9817663419326417</v>
       </c>
       <c r="J22">
-        <v>0.8669980480118001</v>
+        <v>0.8717960823406421</v>
       </c>
       <c r="K22">
-        <v>0.9011996960940343</v>
+        <v>0.9049564961743716</v>
       </c>
       <c r="L22">
-        <v>0.8597432774277275</v>
+        <v>0.8646360656729276</v>
       </c>
       <c r="M22">
-        <v>0.7917766453718184</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.797607403741011</v>
+      </c>
+      <c r="N22">
+        <v>0.8730341327739741</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8398496499193618</v>
+        <v>0.8447088007234498</v>
       </c>
       <c r="D23">
-        <v>0.8932226195965274</v>
+        <v>0.8968434554092111</v>
       </c>
       <c r="E23">
-        <v>0.8531937808071156</v>
+        <v>0.857933421844932</v>
       </c>
       <c r="F23">
-        <v>0.7873003940965518</v>
+        <v>0.7928951115990102</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>0.9848356903034848</v>
+        <v>0.9866530526877247</v>
       </c>
       <c r="J23">
-        <v>0.8787825580931397</v>
+        <v>0.8832987952158334</v>
       </c>
       <c r="K23">
-        <v>0.9108833299680881</v>
+        <v>0.9144100076471582</v>
       </c>
       <c r="L23">
-        <v>0.8719687655162315</v>
+        <v>0.8765690192332828</v>
       </c>
       <c r="M23">
-        <v>0.8082592045918311</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.8136486651470204</v>
+      </c>
+      <c r="N23">
+        <v>0.8845531808208279</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8826430180449865</v>
+        <v>0.8868010794649573</v>
       </c>
       <c r="D24">
-        <v>0.9256672851998563</v>
+        <v>0.9287798565335886</v>
       </c>
       <c r="E24">
-        <v>0.8939648533614146</v>
+        <v>0.8980512460554461</v>
       </c>
       <c r="F24">
-        <v>0.8414257692795226</v>
+        <v>0.8460263853230187</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.000444731098276</v>
+        <v>1.002013116263629</v>
       </c>
       <c r="J24">
-        <v>0.9155488197098802</v>
+        <v>0.9194793824994519</v>
       </c>
       <c r="K24">
-        <v>0.9411388986617837</v>
+        <v>0.9441848361087459</v>
       </c>
       <c r="L24">
-        <v>0.9101506048478822</v>
+        <v>0.9141411567083633</v>
       </c>
       <c r="M24">
-        <v>0.858957192515321</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.8634308685134369</v>
+      </c>
+      <c r="N24">
+        <v>0.9207851486883605</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9202543335395451</v>
+        <v>0.9240419595939025</v>
       </c>
       <c r="D25">
-        <v>0.9543435175801904</v>
+        <v>0.9571879995453998</v>
       </c>
       <c r="E25">
-        <v>0.9299052118080245</v>
+        <v>0.9336481088976748</v>
       </c>
       <c r="F25">
-        <v>0.8881813006908623</v>
+        <v>0.8922628618948657</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.014077659714406</v>
+        <v>1.015515907750177</v>
       </c>
       <c r="J25">
-        <v>0.947799507463717</v>
+        <v>0.9514269647709421</v>
       </c>
       <c r="K25">
-        <v>0.9676945080445789</v>
+        <v>0.9704893825344034</v>
       </c>
       <c r="L25">
-        <v>0.9436987299380352</v>
+        <v>0.9473718917681804</v>
       </c>
       <c r="M25">
-        <v>0.9028048935722917</v>
+        <v>0.9068007252835288</v>
+      </c>
+      <c r="N25">
+        <v>0.9527781001911151</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_33/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_33/res_bus/vm_pu.xlsx
@@ -417,192 +417,984 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>1.05</v>
+      </c>
+      <c r="C2">
+        <v>0.9814571008238653</v>
+      </c>
+      <c r="D2">
+        <v>1.003644909147904</v>
+      </c>
+      <c r="E2">
+        <v>0.9897635975281436</v>
+      </c>
+      <c r="F2">
+        <v>0.9573000200547904</v>
+      </c>
       <c r="G2">
         <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1.038366573716771</v>
+      </c>
+      <c r="J2">
+        <v>1.004206934338502</v>
+      </c>
+      <c r="K2">
+        <v>1.015053697089572</v>
+      </c>
+      <c r="L2">
+        <v>1.001367408170886</v>
+      </c>
+      <c r="M2">
+        <v>0.9693881268157328</v>
+      </c>
+      <c r="N2">
+        <v>1.005421308880189</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>1.05</v>
+      </c>
+      <c r="C3">
+        <v>0.9865625974817885</v>
+      </c>
+      <c r="D3">
+        <v>1.00745665305104</v>
+      </c>
+      <c r="E3">
+        <v>0.9943379269589477</v>
+      </c>
+      <c r="F3">
+        <v>0.9652156290069182</v>
+      </c>
       <c r="G3">
         <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1.039797033399203</v>
+      </c>
+      <c r="J3">
+        <v>1.007426405413493</v>
+      </c>
+      <c r="K3">
+        <v>1.017995005442466</v>
+      </c>
+      <c r="L3">
+        <v>1.005043771404557</v>
+      </c>
+      <c r="M3">
+        <v>0.9763138179759443</v>
+      </c>
+      <c r="N3">
+        <v>1.00649660500899</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>1.05</v>
+      </c>
+      <c r="C4">
+        <v>0.9897820205153162</v>
+      </c>
+      <c r="D4">
+        <v>1.009858898942763</v>
+      </c>
+      <c r="E4">
+        <v>0.9972275647723389</v>
+      </c>
+      <c r="F4">
+        <v>0.9701930497766804</v>
+      </c>
       <c r="G4">
         <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1.040681615121432</v>
+      </c>
+      <c r="J4">
+        <v>1.009450764683555</v>
+      </c>
+      <c r="K4">
+        <v>1.019839774344415</v>
+      </c>
+      <c r="L4">
+        <v>1.007359566217761</v>
+      </c>
+      <c r="M4">
+        <v>0.9806650479080469</v>
+      </c>
+      <c r="N4">
+        <v>1.007172628105172</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>1.05</v>
+      </c>
+      <c r="C5">
+        <v>0.9911162065079449</v>
+      </c>
+      <c r="D5">
+        <v>1.010854026815837</v>
+      </c>
+      <c r="E5">
+        <v>0.9984262828468921</v>
+      </c>
+      <c r="F5">
+        <v>0.9722529096650413</v>
+      </c>
       <c r="G5">
         <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1.041043952696918</v>
+      </c>
+      <c r="J5">
+        <v>1.01028829149929</v>
+      </c>
+      <c r="K5">
+        <v>1.020601834801864</v>
+      </c>
+      <c r="L5">
+        <v>1.008318660364502</v>
+      </c>
+      <c r="M5">
+        <v>0.9824648278256172</v>
+      </c>
+      <c r="N5">
+        <v>1.007452285007326</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>1.05</v>
+      </c>
+      <c r="C6">
+        <v>0.9913391176111701</v>
+      </c>
+      <c r="D6">
+        <v>1.011020263210841</v>
+      </c>
+      <c r="E6">
+        <v>0.9986266300275618</v>
+      </c>
+      <c r="F6">
+        <v>0.9725969083997247</v>
+      </c>
       <c r="G6">
         <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1.041104239068818</v>
+      </c>
+      <c r="J6">
+        <v>1.010428139458051</v>
+      </c>
+      <c r="K6">
+        <v>1.020729011864902</v>
+      </c>
+      <c r="L6">
+        <v>1.00847886569553</v>
+      </c>
+      <c r="M6">
+        <v>0.982765336632803</v>
+      </c>
+      <c r="N6">
+        <v>1.007498979450277</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>1.05</v>
+      </c>
+      <c r="C7">
+        <v>0.9897999225155506</v>
+      </c>
+      <c r="D7">
+        <v>1.009872253193332</v>
+      </c>
+      <c r="E7">
+        <v>0.9972436443729413</v>
+      </c>
+      <c r="F7">
+        <v>0.9702206995516104</v>
+      </c>
       <c r="G7">
         <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1.040686493825674</v>
+      </c>
+      <c r="J7">
+        <v>1.009462008126119</v>
+      </c>
+      <c r="K7">
+        <v>1.019850009349045</v>
+      </c>
+      <c r="L7">
+        <v>1.007372437720876</v>
+      </c>
+      <c r="M7">
+        <v>0.9806892103565409</v>
+      </c>
+      <c r="N7">
+        <v>1.007176382506309</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>1.05</v>
+      </c>
+      <c r="C8">
+        <v>0.9832005136392068</v>
+      </c>
+      <c r="D8">
+        <v>1.004946772123392</v>
+      </c>
+      <c r="E8">
+        <v>0.9913245200702437</v>
+      </c>
+      <c r="F8">
+        <v>0.9600062831028993</v>
+      </c>
       <c r="G8">
         <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1.038858673237899</v>
+      </c>
+      <c r="J8">
+        <v>1.005307515944274</v>
+      </c>
+      <c r="K8">
+        <v>1.016060150595127</v>
+      </c>
+      <c r="L8">
+        <v>1.002623302927174</v>
+      </c>
+      <c r="M8">
+        <v>0.9717567034914673</v>
+      </c>
+      <c r="N8">
+        <v>1.00578892081224</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>1.05</v>
+      </c>
+      <c r="C9">
+        <v>0.970883201524136</v>
+      </c>
+      <c r="D9">
+        <v>0.9957466023318028</v>
+      </c>
+      <c r="E9">
+        <v>0.9803202502644139</v>
+      </c>
+      <c r="F9">
+        <v>0.940803544871071</v>
+      </c>
       <c r="G9">
         <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1.035309899080172</v>
+      </c>
+      <c r="J9">
+        <v>0.9975077727655703</v>
+      </c>
+      <c r="K9">
+        <v>1.008909066962546</v>
+      </c>
+      <c r="L9">
+        <v>0.9937408968215417</v>
+      </c>
+      <c r="M9">
+        <v>0.9549360731149258</v>
+      </c>
+      <c r="N9">
+        <v>1.003183401977217</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>1.05</v>
+      </c>
+      <c r="C10">
+        <v>0.9621416377668117</v>
+      </c>
+      <c r="D10">
+        <v>0.9892181663930888</v>
+      </c>
+      <c r="E10">
+        <v>0.9725427961712535</v>
+      </c>
+      <c r="F10">
+        <v>0.9270400006984342</v>
+      </c>
       <c r="G10">
         <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1.032702318862111</v>
+      </c>
+      <c r="J10">
+        <v>0.9919422124011154</v>
+      </c>
+      <c r="K10">
+        <v>1.003784857657722</v>
+      </c>
+      <c r="L10">
+        <v>0.9874261496914223</v>
+      </c>
+      <c r="M10">
+        <v>0.9428645837955116</v>
+      </c>
+      <c r="N10">
+        <v>1.001324076412124</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>1.05</v>
+      </c>
+      <c r="C11">
+        <v>0.958213607257679</v>
+      </c>
+      <c r="D11">
+        <v>0.9862861978475465</v>
+      </c>
+      <c r="E11">
+        <v>0.9690563174798356</v>
+      </c>
+      <c r="F11">
+        <v>0.9208121394835772</v>
+      </c>
       <c r="G11">
         <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1.031510441801925</v>
+      </c>
+      <c r="J11">
+        <v>0.9894343410869855</v>
+      </c>
+      <c r="K11">
+        <v>1.001471454759244</v>
+      </c>
+      <c r="L11">
+        <v>0.984586370759356</v>
+      </c>
+      <c r="M11">
+        <v>0.9373996849747269</v>
+      </c>
+      <c r="N11">
+        <v>1.000486295286422</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>1.05</v>
+      </c>
+      <c r="C12">
+        <v>0.9567314480759862</v>
+      </c>
+      <c r="D12">
+        <v>0.9851802459005017</v>
+      </c>
+      <c r="E12">
+        <v>0.9677420805539356</v>
+      </c>
+      <c r="F12">
+        <v>0.9184545978988947</v>
+      </c>
       <c r="G12">
         <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1.031057769971438</v>
+      </c>
+      <c r="J12">
+        <v>0.9884870103406685</v>
+      </c>
+      <c r="K12">
+        <v>1.00059698520314</v>
+      </c>
+      <c r="L12">
+        <v>0.9835145323909441</v>
+      </c>
+      <c r="M12">
+        <v>0.9353306542063744</v>
+      </c>
+      <c r="N12">
+        <v>1.00016984220464</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>1.05</v>
+      </c>
+      <c r="C13">
+        <v>0.957050450661289</v>
+      </c>
+      <c r="D13">
+        <v>0.9854182594984625</v>
+      </c>
+      <c r="E13">
+        <v>0.9680248812665261</v>
+      </c>
+      <c r="F13">
+        <v>0.9189623695558858</v>
+      </c>
       <c r="G13">
         <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1.031155329182369</v>
+      </c>
+      <c r="J13">
+        <v>0.9886909494851788</v>
+      </c>
+      <c r="K13">
+        <v>1.000785264871188</v>
+      </c>
+      <c r="L13">
+        <v>0.9837452357821789</v>
+      </c>
+      <c r="M13">
+        <v>0.9357762980534401</v>
+      </c>
+      <c r="N13">
+        <v>1.00023796679139</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>1.05</v>
+      </c>
+      <c r="C14">
+        <v>0.958091573209765</v>
+      </c>
+      <c r="D14">
+        <v>0.9861951307968861</v>
+      </c>
+      <c r="E14">
+        <v>0.9689480823704709</v>
+      </c>
+      <c r="F14">
+        <v>0.9206181914880832</v>
+      </c>
       <c r="G14">
         <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1.031473230136393</v>
+      </c>
+      <c r="J14">
+        <v>0.9893563633436724</v>
+      </c>
+      <c r="K14">
+        <v>1.00139948619286</v>
+      </c>
+      <c r="L14">
+        <v>0.9844981266942909</v>
+      </c>
+      <c r="M14">
+        <v>0.9372294775414809</v>
+      </c>
+      <c r="N14">
+        <v>1.000460246747387</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>1.05</v>
+      </c>
+      <c r="C15">
+        <v>0.9587299279884929</v>
+      </c>
+      <c r="D15">
+        <v>0.986671514155734</v>
+      </c>
+      <c r="E15">
+        <v>0.9695143092640714</v>
+      </c>
+      <c r="F15">
+        <v>0.9216324091906593</v>
+      </c>
       <c r="G15">
         <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1.031667763527476</v>
+      </c>
+      <c r="J15">
+        <v>0.989764219304174</v>
+      </c>
+      <c r="K15">
+        <v>1.001775887738503</v>
+      </c>
+      <c r="L15">
+        <v>0.9849597151863655</v>
+      </c>
+      <c r="M15">
+        <v>0.9381195361874661</v>
+      </c>
+      <c r="N15">
+        <v>1.000596491980678</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>1.05</v>
+      </c>
+      <c r="C16">
+        <v>0.9623991813488639</v>
+      </c>
+      <c r="D16">
+        <v>0.9894104459844518</v>
+      </c>
+      <c r="E16">
+        <v>0.9727715670570195</v>
+      </c>
+      <c r="F16">
+        <v>0.9274473481855042</v>
+      </c>
       <c r="G16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="I16">
+        <v>1.032780053738189</v>
+      </c>
+      <c r="J16">
+        <v>0.9921064984638587</v>
+      </c>
+      <c r="K16">
+        <v>1.003936318366243</v>
+      </c>
+      <c r="L16">
+        <v>0.9876122973641021</v>
+      </c>
+      <c r="M16">
+        <v>0.9432219803395353</v>
+      </c>
+      <c r="N16">
+        <v>1.001378959323918</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>1.05</v>
+      </c>
+      <c r="C17">
+        <v>0.9646614465826484</v>
+      </c>
+      <c r="D17">
+        <v>0.9910996262930306</v>
+      </c>
+      <c r="E17">
+        <v>0.9747820430577309</v>
+      </c>
+      <c r="F17">
+        <v>0.931020483044272</v>
+      </c>
       <c r="G17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="I17">
+        <v>1.033460604384574</v>
+      </c>
+      <c r="J17">
+        <v>0.9935487996938444</v>
+      </c>
+      <c r="K17">
+        <v>1.005265531982232</v>
+      </c>
+      <c r="L17">
+        <v>0.9892471700964485</v>
+      </c>
+      <c r="M17">
+        <v>0.9463566681892263</v>
+      </c>
+      <c r="N17">
+        <v>1.001860793128878</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
+      <c r="B18">
+        <v>1.05</v>
+      </c>
+      <c r="C18">
+        <v>0.9659673225789922</v>
+      </c>
+      <c r="D18">
+        <v>0.992074834764287</v>
+      </c>
+      <c r="E18">
+        <v>0.9759433573101085</v>
+      </c>
+      <c r="F18">
+        <v>0.933079051635067</v>
+      </c>
       <c r="G18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="I18">
+        <v>1.033851539237587</v>
+      </c>
+      <c r="J18">
+        <v>0.9943806982203915</v>
+      </c>
+      <c r="K18">
+        <v>1.006031783638615</v>
+      </c>
+      <c r="L18">
+        <v>0.9901906750881586</v>
+      </c>
+      <c r="M18">
+        <v>0.9481623788597674</v>
+      </c>
+      <c r="N18">
+        <v>1.002138711313073</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
+      <c r="B19">
+        <v>1.05</v>
+      </c>
+      <c r="C19">
+        <v>0.966410321893917</v>
+      </c>
+      <c r="D19">
+        <v>0.9924056803824702</v>
+      </c>
+      <c r="E19">
+        <v>0.9763374470260839</v>
+      </c>
+      <c r="F19">
+        <v>0.9337767430859311</v>
+      </c>
       <c r="G19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="I19">
+        <v>1.033983832011266</v>
+      </c>
+      <c r="J19">
+        <v>0.9946627954305769</v>
+      </c>
+      <c r="K19">
+        <v>1.006291546968882</v>
+      </c>
+      <c r="L19">
+        <v>0.990510708295932</v>
+      </c>
+      <c r="M19">
+        <v>0.9487743251378193</v>
+      </c>
+      <c r="N19">
+        <v>1.002232953894815</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
+      <c r="B20">
+        <v>1.05</v>
+      </c>
+      <c r="C20">
+        <v>0.9644201517129001</v>
+      </c>
+      <c r="D20">
+        <v>0.9909194415199831</v>
+      </c>
+      <c r="E20">
+        <v>0.9745675226081431</v>
+      </c>
+      <c r="F20">
+        <v>0.9306397922965685</v>
+      </c>
       <c r="G20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="I20">
+        <v>1.033388213900214</v>
+      </c>
+      <c r="J20">
+        <v>0.9933950311682817</v>
+      </c>
+      <c r="K20">
+        <v>1.005123863249491</v>
+      </c>
+      <c r="L20">
+        <v>0.989072815314236</v>
+      </c>
+      <c r="M20">
+        <v>0.9460227168747692</v>
+      </c>
+      <c r="N20">
+        <v>1.00180942282673</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
+      <c r="B21">
+        <v>1.05</v>
+      </c>
+      <c r="C21">
+        <v>0.9577856407731836</v>
+      </c>
+      <c r="D21">
+        <v>0.9859668371694028</v>
+      </c>
+      <c r="E21">
+        <v>0.9686767644161721</v>
+      </c>
+      <c r="F21">
+        <v>0.920131848706863</v>
+      </c>
       <c r="G21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="I21">
+        <v>1.031379895554096</v>
+      </c>
+      <c r="J21">
+        <v>0.9891608608792857</v>
+      </c>
+      <c r="K21">
+        <v>1.001219040288073</v>
+      </c>
+      <c r="L21">
+        <v>0.9842768989693172</v>
+      </c>
+      <c r="M21">
+        <v>0.9368026618598556</v>
+      </c>
+      <c r="N21">
+        <v>1.00039493919404</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
+      <c r="B22">
+        <v>1.05</v>
+      </c>
+      <c r="C22">
+        <v>0.9534795763873231</v>
+      </c>
+      <c r="D22">
+        <v>0.9827545934399389</v>
+      </c>
+      <c r="E22">
+        <v>0.9648611190400161</v>
+      </c>
+      <c r="F22">
+        <v>0.9132667876558731</v>
+      </c>
       <c r="G22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="I22">
+        <v>1.030059282010336</v>
+      </c>
+      <c r="J22">
+        <v>0.9864066521293643</v>
+      </c>
+      <c r="K22">
+        <v>0.9986756052050497</v>
+      </c>
+      <c r="L22">
+        <v>0.981162371985019</v>
+      </c>
+      <c r="M22">
+        <v>0.9307772679195702</v>
+      </c>
+      <c r="N22">
+        <v>0.9994749360292063</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
+      <c r="B23">
+        <v>1.05</v>
+      </c>
+      <c r="C23">
+        <v>0.9557756686981511</v>
+      </c>
+      <c r="D23">
+        <v>0.984467185110465</v>
+      </c>
+      <c r="E23">
+        <v>0.9668949645480145</v>
+      </c>
+      <c r="F23">
+        <v>0.9169320321939702</v>
+      </c>
       <c r="G23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="I23">
+        <v>1.03076504361753</v>
+      </c>
+      <c r="J23">
+        <v>0.9878758265680582</v>
+      </c>
+      <c r="K23">
+        <v>1.000032648786931</v>
+      </c>
+      <c r="L23">
+        <v>0.9828232675952936</v>
+      </c>
+      <c r="M23">
+        <v>0.9339943433412589</v>
+      </c>
+      <c r="N23">
+        <v>0.999965682534971</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
+      <c r="B24">
+        <v>1.05</v>
+      </c>
+      <c r="C24">
+        <v>0.9645292245854843</v>
+      </c>
+      <c r="D24">
+        <v>0.9910008902763008</v>
+      </c>
+      <c r="E24">
+        <v>0.9746644901786132</v>
+      </c>
+      <c r="F24">
+        <v>0.9308118888179784</v>
+      </c>
       <c r="G24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="I24">
+        <v>1.033420942605282</v>
+      </c>
+      <c r="J24">
+        <v>0.9934645414267121</v>
+      </c>
+      <c r="K24">
+        <v>1.005187905167279</v>
+      </c>
+      <c r="L24">
+        <v>0.9891516298254575</v>
+      </c>
+      <c r="M24">
+        <v>0.9461736849971635</v>
+      </c>
+      <c r="N24">
+        <v>1.001832644493306</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
+      <c r="B25">
+        <v>1.05</v>
+      </c>
+      <c r="C25">
+        <v>0.9741556205500612</v>
+      </c>
+      <c r="D25">
+        <v>0.9981911424100551</v>
+      </c>
+      <c r="E25">
+        <v>0.9832385163693645</v>
+      </c>
+      <c r="F25">
+        <v>0.9459251870459863</v>
+      </c>
       <c r="G25">
         <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1.036268263891349</v>
+      </c>
+      <c r="J25">
+        <v>0.9995851914645831</v>
+      </c>
+      <c r="K25">
+        <v>1.010817603612407</v>
+      </c>
+      <c r="L25">
+        <v>0.9961027277502263</v>
+      </c>
+      <c r="M25">
+        <v>0.9594252629169048</v>
+      </c>
+      <c r="N25">
+        <v>1.003877414413307</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_33/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_33/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9814571008238653</v>
+        <v>1.016476390735124</v>
       </c>
       <c r="D2">
-        <v>1.003644909147904</v>
+        <v>1.022552646142433</v>
       </c>
       <c r="E2">
-        <v>0.9897635975281436</v>
+        <v>1.020086979618628</v>
       </c>
       <c r="F2">
-        <v>0.9573000200547904</v>
+        <v>1.014821749753253</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038366573716771</v>
+        <v>1.026676302298349</v>
       </c>
       <c r="J2">
-        <v>1.004206934338502</v>
+        <v>1.021695982334547</v>
       </c>
       <c r="K2">
-        <v>1.015053697089572</v>
+        <v>1.025386689852763</v>
       </c>
       <c r="L2">
-        <v>1.001367408170886</v>
+        <v>1.022928304666488</v>
       </c>
       <c r="M2">
-        <v>0.9693881268157328</v>
+        <v>1.017678752510762</v>
       </c>
       <c r="N2">
-        <v>1.005421308880189</v>
+        <v>1.011330523401674</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9865625974817885</v>
+        <v>1.017504854366392</v>
       </c>
       <c r="D3">
-        <v>1.00745665305104</v>
+        <v>1.023316888935925</v>
       </c>
       <c r="E3">
-        <v>0.9943379269589477</v>
+        <v>1.021062168632698</v>
       </c>
       <c r="F3">
-        <v>0.9652156290069182</v>
+        <v>1.016494260606749</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039797033399203</v>
+        <v>1.026859666256574</v>
       </c>
       <c r="J3">
-        <v>1.007426405413493</v>
+        <v>1.022359498193123</v>
       </c>
       <c r="K3">
-        <v>1.017995005442466</v>
+        <v>1.025957739132902</v>
       </c>
       <c r="L3">
-        <v>1.005043771404557</v>
+        <v>1.023709193589001</v>
       </c>
       <c r="M3">
-        <v>0.9763138179759443</v>
+        <v>1.019153886183884</v>
       </c>
       <c r="N3">
-        <v>1.00649660500899</v>
+        <v>1.011550920691649</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9897820205153162</v>
+        <v>1.01816973544207</v>
       </c>
       <c r="D4">
-        <v>1.009858898942763</v>
+        <v>1.023810328467135</v>
       </c>
       <c r="E4">
-        <v>0.9972275647723389</v>
+        <v>1.021692953420002</v>
       </c>
       <c r="F4">
-        <v>0.9701930497766804</v>
+        <v>1.017575687876625</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.040681615121432</v>
+        <v>1.026976033760001</v>
       </c>
       <c r="J4">
-        <v>1.009450764683555</v>
+        <v>1.022787699749273</v>
       </c>
       <c r="K4">
-        <v>1.019839774344415</v>
+        <v>1.026325515551769</v>
       </c>
       <c r="L4">
-        <v>1.007359566217761</v>
+        <v>1.024213645874003</v>
       </c>
       <c r="M4">
-        <v>0.9806650479080469</v>
+        <v>1.020107156435399</v>
       </c>
       <c r="N4">
-        <v>1.007172628105172</v>
+        <v>1.011693109314546</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9911162065079449</v>
+        <v>1.018449108312485</v>
       </c>
       <c r="D5">
-        <v>1.010854026815837</v>
+        <v>1.024017512857733</v>
       </c>
       <c r="E5">
-        <v>0.9984262828468921</v>
+        <v>1.021958081687835</v>
       </c>
       <c r="F5">
-        <v>0.9722529096650413</v>
+        <v>1.01803013642167</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041043952696918</v>
+        <v>1.027024408447508</v>
       </c>
       <c r="J5">
-        <v>1.01028829149929</v>
+        <v>1.022967444191504</v>
       </c>
       <c r="K5">
-        <v>1.020601834801864</v>
+        <v>1.026479714776894</v>
       </c>
       <c r="L5">
-        <v>1.008318660364502</v>
+        <v>1.024425518547928</v>
       </c>
       <c r="M5">
-        <v>0.9824648278256172</v>
+        <v>1.02050762119368</v>
       </c>
       <c r="N5">
-        <v>1.007452285007326</v>
+        <v>1.011752784339893</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9913391176111701</v>
+        <v>1.018496007893239</v>
       </c>
       <c r="D6">
-        <v>1.011020263210841</v>
+        <v>1.024052284927887</v>
       </c>
       <c r="E6">
-        <v>0.9986266300275618</v>
+        <v>1.022002594768791</v>
       </c>
       <c r="F6">
-        <v>0.9725969083997247</v>
+        <v>1.018106429799416</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041104239068818</v>
+        <v>1.027032498737804</v>
       </c>
       <c r="J6">
-        <v>1.010428139458051</v>
+        <v>1.022997608178103</v>
       </c>
       <c r="K6">
-        <v>1.020729011864902</v>
+        <v>1.026505581238736</v>
       </c>
       <c r="L6">
-        <v>1.00847886569553</v>
+        <v>1.024461081253168</v>
       </c>
       <c r="M6">
-        <v>0.982765336632803</v>
+        <v>1.020574844175903</v>
       </c>
       <c r="N6">
-        <v>1.007498979450277</v>
+        <v>1.011762798119032</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9897999225155506</v>
+        <v>1.01817346899676</v>
       </c>
       <c r="D7">
-        <v>1.009872253193332</v>
+        <v>1.023813097887095</v>
       </c>
       <c r="E7">
-        <v>0.9972436443729413</v>
+        <v>1.021696496286695</v>
       </c>
       <c r="F7">
-        <v>0.9702206995516104</v>
+        <v>1.017581760951603</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.040686493825674</v>
+        <v>1.026976682291311</v>
       </c>
       <c r="J7">
-        <v>1.009462008126119</v>
+        <v>1.022790102569071</v>
       </c>
       <c r="K7">
-        <v>1.019850009349045</v>
+        <v>1.026327577595653</v>
       </c>
       <c r="L7">
-        <v>1.007372437720876</v>
+        <v>1.024216477708217</v>
       </c>
       <c r="M7">
-        <v>0.9806892103565409</v>
+        <v>1.02011250859646</v>
       </c>
       <c r="N7">
-        <v>1.007176382506309</v>
+        <v>1.011693907092019</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9832005136392068</v>
+        <v>1.016824090666164</v>
       </c>
       <c r="D8">
-        <v>1.004946772123392</v>
+        <v>1.022811148609084</v>
       </c>
       <c r="E8">
-        <v>0.9913245200702437</v>
+        <v>1.020416596983646</v>
       </c>
       <c r="F8">
-        <v>0.9600062831028993</v>
+        <v>1.015387152804022</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038858673237899</v>
+        <v>1.026738743309671</v>
       </c>
       <c r="J8">
-        <v>1.005307515944274</v>
+        <v>1.021920456681231</v>
       </c>
       <c r="K8">
-        <v>1.016060150595127</v>
+        <v>1.025580037184001</v>
       </c>
       <c r="L8">
-        <v>1.002623302927174</v>
+        <v>1.023192383156168</v>
       </c>
       <c r="M8">
-        <v>0.9717567034914673</v>
+        <v>1.018177541652836</v>
       </c>
       <c r="N8">
-        <v>1.00578892081224</v>
+        <v>1.011405095458603</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.970883201524136</v>
+        <v>1.014441627105252</v>
       </c>
       <c r="D9">
-        <v>0.9957466023318028</v>
+        <v>1.021037330938085</v>
       </c>
       <c r="E9">
-        <v>0.9803202502644139</v>
+        <v>1.018159467121475</v>
       </c>
       <c r="F9">
-        <v>0.940803544871071</v>
+        <v>1.011513501422711</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035309899080172</v>
+        <v>1.026301995284589</v>
       </c>
       <c r="J9">
-        <v>0.9975077727655703</v>
+        <v>1.020379278088183</v>
       </c>
       <c r="K9">
-        <v>1.008909066962546</v>
+        <v>1.024249504089819</v>
       </c>
       <c r="L9">
-        <v>0.9937408968215417</v>
+        <v>1.021381362867317</v>
       </c>
       <c r="M9">
-        <v>0.9549360731149258</v>
+        <v>1.014758082428259</v>
       </c>
       <c r="N9">
-        <v>1.003183401977217</v>
+        <v>1.010892920675948</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9621416377668117</v>
+        <v>1.012850075157405</v>
       </c>
       <c r="D10">
-        <v>0.9892181663930888</v>
+        <v>1.019849218441602</v>
       </c>
       <c r="E10">
-        <v>0.9725427961712535</v>
+        <v>1.016653455167724</v>
       </c>
       <c r="F10">
-        <v>0.9270400006984342</v>
+        <v>1.008926223100761</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032702318862111</v>
+        <v>1.025999085395955</v>
       </c>
       <c r="J10">
-        <v>0.9919422124011154</v>
+        <v>1.01934588410025</v>
       </c>
       <c r="K10">
-        <v>1.003784857657722</v>
+        <v>1.023353532024105</v>
       </c>
       <c r="L10">
-        <v>0.9874261496914223</v>
+        <v>1.020169631288091</v>
       </c>
       <c r="M10">
-        <v>0.9428645837955116</v>
+        <v>1.01247142637166</v>
       </c>
       <c r="N10">
-        <v>1.001324076412124</v>
+        <v>1.010549268194339</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.958213607257679</v>
+        <v>1.012160124857675</v>
       </c>
       <c r="D11">
-        <v>0.9862861978475465</v>
+        <v>1.019333426928743</v>
       </c>
       <c r="E11">
-        <v>0.9690563174798356</v>
+        <v>1.016001022425425</v>
       </c>
       <c r="F11">
-        <v>0.9208121394835772</v>
+        <v>1.00780464385038</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.031510441801925</v>
+        <v>1.025865135754988</v>
       </c>
       <c r="J11">
-        <v>0.9894343410869855</v>
+        <v>1.01889699004852</v>
       </c>
       <c r="K11">
-        <v>1.001471454759244</v>
+        <v>1.022963436223099</v>
       </c>
       <c r="L11">
-        <v>0.984586370759356</v>
+        <v>1.019643884122543</v>
       </c>
       <c r="M11">
-        <v>0.9373996849747269</v>
+        <v>1.011479519120227</v>
       </c>
       <c r="N11">
-        <v>1.000486295286422</v>
+        <v>1.01039993647304</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9567314480759862</v>
+        <v>1.011903724755379</v>
       </c>
       <c r="D12">
-        <v>0.9851802459005017</v>
+        <v>1.019141638443923</v>
       </c>
       <c r="E12">
-        <v>0.9677420805539356</v>
+        <v>1.015758630473294</v>
       </c>
       <c r="F12">
-        <v>0.9184545978988947</v>
+        <v>1.007387838909833</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031057769971438</v>
+        <v>1.025814961918995</v>
       </c>
       <c r="J12">
-        <v>0.9884870103406685</v>
+        <v>1.018730035029097</v>
       </c>
       <c r="K12">
-        <v>1.00059698520314</v>
+        <v>1.022818215916679</v>
       </c>
       <c r="L12">
-        <v>0.9835145323909441</v>
+        <v>1.019448437731894</v>
       </c>
       <c r="M12">
-        <v>0.9353306542063744</v>
+        <v>1.011110806341885</v>
       </c>
       <c r="N12">
-        <v>1.00016984220464</v>
+        <v>1.010344388326815</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.957050450661289</v>
+        <v>1.01195872899328</v>
       </c>
       <c r="D13">
-        <v>0.9854182594984625</v>
+        <v>1.019182786810053</v>
       </c>
       <c r="E13">
-        <v>0.9680248812665261</v>
+        <v>1.01581062662659</v>
       </c>
       <c r="F13">
-        <v>0.9189623695558858</v>
+        <v>1.007477254210381</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031155329182369</v>
+        <v>1.025825743339378</v>
       </c>
       <c r="J13">
-        <v>0.9886909494851788</v>
+        <v>1.018765857233094</v>
       </c>
       <c r="K13">
-        <v>1.000785264871188</v>
+        <v>1.022849380719722</v>
       </c>
       <c r="L13">
-        <v>0.9837452357821789</v>
+        <v>1.019490368929865</v>
       </c>
       <c r="M13">
-        <v>0.9357762980534401</v>
+        <v>1.011189909029613</v>
       </c>
       <c r="N13">
-        <v>1.00023796679139</v>
+        <v>1.010356307205335</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.958091573209765</v>
+        <v>1.012138933242285</v>
       </c>
       <c r="D14">
-        <v>0.9861951307968861</v>
+        <v>1.019317577727445</v>
       </c>
       <c r="E14">
-        <v>0.9689480823704709</v>
+        <v>1.015980987246383</v>
       </c>
       <c r="F14">
-        <v>0.9206181914880832</v>
+        <v>1.007770194769043</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.031473230136393</v>
+        <v>1.025860996918003</v>
       </c>
       <c r="J14">
-        <v>0.9893563633436724</v>
+        <v>1.018883193903979</v>
       </c>
       <c r="K14">
-        <v>1.00139948619286</v>
+        <v>1.022951438827271</v>
       </c>
       <c r="L14">
-        <v>0.9844981266942909</v>
+        <v>1.019627731744483</v>
       </c>
       <c r="M14">
-        <v>0.9372294775414809</v>
+        <v>1.011449046850146</v>
       </c>
       <c r="N14">
-        <v>1.000460246747387</v>
+        <v>1.010395346473944</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9587299279884929</v>
+        <v>1.012249946822873</v>
       </c>
       <c r="D15">
-        <v>0.986671514155734</v>
+        <v>1.019400600267255</v>
       </c>
       <c r="E15">
-        <v>0.9695143092640714</v>
+        <v>1.016085945462126</v>
       </c>
       <c r="F15">
-        <v>0.9216324091906593</v>
+        <v>1.007950658264146</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.031667763527476</v>
+        <v>1.025882662287967</v>
       </c>
       <c r="J15">
-        <v>0.989764219304174</v>
+        <v>1.018955460267248</v>
       </c>
       <c r="K15">
-        <v>1.001775887738503</v>
+        <v>1.023014277589944</v>
       </c>
       <c r="L15">
-        <v>0.9849597151863655</v>
+        <v>1.019712344202442</v>
       </c>
       <c r="M15">
-        <v>0.9381195361874661</v>
+        <v>1.01160867362178</v>
       </c>
       <c r="N15">
-        <v>1.000596491980678</v>
+        <v>1.010419389283804</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9623991813488639</v>
+        <v>1.012895847909204</v>
       </c>
       <c r="D16">
-        <v>0.9894104459844518</v>
+        <v>1.019883421734023</v>
       </c>
       <c r="E16">
-        <v>0.9727715670570195</v>
+        <v>1.016696748130199</v>
       </c>
       <c r="F16">
-        <v>0.9274473481855042</v>
+        <v>1.009000631035384</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032780053738189</v>
+        <v>1.026007916446279</v>
       </c>
       <c r="J16">
-        <v>0.9921064984638587</v>
+        <v>1.019375645531316</v>
       </c>
       <c r="K16">
-        <v>1.003936318366243</v>
+        <v>1.023379376373581</v>
       </c>
       <c r="L16">
-        <v>0.9876122973641021</v>
+        <v>1.020204500963342</v>
       </c>
       <c r="M16">
-        <v>0.9432219803395353</v>
+        <v>1.012537217986221</v>
       </c>
       <c r="N16">
-        <v>1.001378959323918</v>
+        <v>1.010559167693685</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9646614465826484</v>
+        <v>1.013300789610139</v>
       </c>
       <c r="D17">
-        <v>0.9910996262930306</v>
+        <v>1.020185926139217</v>
       </c>
       <c r="E17">
-        <v>0.9747820430577309</v>
+        <v>1.01707980197855</v>
       </c>
       <c r="F17">
-        <v>0.931020483044272</v>
+        <v>1.009658904289367</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033460604384574</v>
+        <v>1.026085738625605</v>
       </c>
       <c r="J17">
-        <v>0.9935487996938444</v>
+        <v>1.019638833519212</v>
       </c>
       <c r="K17">
-        <v>1.005265531982232</v>
+        <v>1.023607821343931</v>
       </c>
       <c r="L17">
-        <v>0.9892471700964485</v>
+        <v>1.0205129333394</v>
       </c>
       <c r="M17">
-        <v>0.9463566681892263</v>
+        <v>1.013119189572171</v>
       </c>
       <c r="N17">
-        <v>1.001860793128878</v>
+        <v>1.01064670538907</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9659673225789922</v>
+        <v>1.013536908412882</v>
       </c>
       <c r="D18">
-        <v>0.992074834764287</v>
+        <v>1.020362243464751</v>
       </c>
       <c r="E18">
-        <v>0.9759433573101085</v>
+        <v>1.017303200062479</v>
       </c>
       <c r="F18">
-        <v>0.933079051635067</v>
+        <v>1.010042741990841</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033851539237587</v>
+        <v>1.026130862029682</v>
       </c>
       <c r="J18">
-        <v>0.9943806982203915</v>
+        <v>1.019792208963174</v>
       </c>
       <c r="K18">
-        <v>1.006031783638615</v>
+        <v>1.023740863584563</v>
       </c>
       <c r="L18">
-        <v>0.9901906750881586</v>
+        <v>1.020692734601307</v>
       </c>
       <c r="M18">
-        <v>0.9481623788597674</v>
+        <v>1.013458473530085</v>
       </c>
       <c r="N18">
-        <v>1.002138711313073</v>
+        <v>1.010697713734681</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.966410321893917</v>
+        <v>1.013617405848393</v>
       </c>
       <c r="D19">
-        <v>0.9924056803824702</v>
+        <v>1.020422341358476</v>
       </c>
       <c r="E19">
-        <v>0.9763374470260839</v>
+        <v>1.017379367861449</v>
       </c>
       <c r="F19">
-        <v>0.9337767430859311</v>
+        <v>1.010173600330974</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033983832011266</v>
+        <v>1.026146202329089</v>
       </c>
       <c r="J19">
-        <v>0.9946627954305769</v>
+        <v>1.019844482715562</v>
       </c>
       <c r="K19">
-        <v>1.006291546968882</v>
+        <v>1.023786192657462</v>
       </c>
       <c r="L19">
-        <v>0.990510708295932</v>
+        <v>1.020754024902271</v>
       </c>
       <c r="M19">
-        <v>0.9487743251378193</v>
+        <v>1.013574131969901</v>
       </c>
       <c r="N19">
-        <v>1.002232953894815</v>
+        <v>1.010715097638238</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9644201517129001</v>
+        <v>1.013257351161255</v>
       </c>
       <c r="D20">
-        <v>0.9909194415199831</v>
+        <v>1.020153483562955</v>
       </c>
       <c r="E20">
-        <v>0.9745675226081431</v>
+        <v>1.017038707116658</v>
       </c>
       <c r="F20">
-        <v>0.9306397922965685</v>
+        <v>1.009588290484273</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033388213900214</v>
+        <v>1.026077416863208</v>
       </c>
       <c r="J20">
-        <v>0.9933950311682817</v>
+        <v>1.019610610187458</v>
       </c>
       <c r="K20">
-        <v>1.005123863249491</v>
+        <v>1.023583332658252</v>
       </c>
       <c r="L20">
-        <v>0.989072815314236</v>
+        <v>1.020479852038026</v>
       </c>
       <c r="M20">
-        <v>0.9460227168747692</v>
+        <v>1.013056767197714</v>
       </c>
       <c r="N20">
-        <v>1.00180942282673</v>
+        <v>1.01063731869177</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9577856407731836</v>
+        <v>1.012085870961844</v>
       </c>
       <c r="D21">
-        <v>0.9859668371694028</v>
+        <v>1.019277890702903</v>
       </c>
       <c r="E21">
-        <v>0.9686767644161721</v>
+        <v>1.015930821664215</v>
       </c>
       <c r="F21">
-        <v>0.920131848706863</v>
+        <v>1.00768393668694</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031379895554096</v>
+        <v>1.0258506271849</v>
       </c>
       <c r="J21">
-        <v>0.9891608608792857</v>
+        <v>1.018848647146078</v>
       </c>
       <c r="K21">
-        <v>1.001219040288073</v>
+        <v>1.022921394135487</v>
       </c>
       <c r="L21">
-        <v>0.9842768989693172</v>
+        <v>1.019587286260138</v>
       </c>
       <c r="M21">
-        <v>0.9368026618598556</v>
+        <v>1.01137274485892</v>
       </c>
       <c r="N21">
-        <v>1.00039493919404</v>
+        <v>1.010383852585455</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9534795763873231</v>
+        <v>1.011348608933959</v>
       </c>
       <c r="D22">
-        <v>0.9827545934399389</v>
+        <v>1.018726210081598</v>
       </c>
       <c r="E22">
-        <v>0.9648611190400161</v>
+        <v>1.015233963708323</v>
       </c>
       <c r="F22">
-        <v>0.9132667876558731</v>
+        <v>1.006485429235899</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.030059282010336</v>
+        <v>1.02570561136141</v>
       </c>
       <c r="J22">
-        <v>0.9864066521293643</v>
+        <v>1.018368321637587</v>
       </c>
       <c r="K22">
-        <v>0.9986756052050497</v>
+        <v>1.022503347454331</v>
       </c>
       <c r="L22">
-        <v>0.981162371985019</v>
+        <v>1.019025165545804</v>
       </c>
       <c r="M22">
-        <v>0.9307772679195702</v>
+        <v>1.010312342224106</v>
       </c>
       <c r="N22">
-        <v>0.9994749360292063</v>
+        <v>1.010224027094827</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9557756686981511</v>
+        <v>1.011739513065744</v>
       </c>
       <c r="D23">
-        <v>0.984467185110465</v>
+        <v>1.019018776635693</v>
       </c>
       <c r="E23">
-        <v>0.9668949645480145</v>
+        <v>1.015603408904001</v>
       </c>
       <c r="F23">
-        <v>0.9169320321939702</v>
+        <v>1.007120894319112</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.03076504361753</v>
+        <v>1.025782716832332</v>
       </c>
       <c r="J23">
-        <v>0.9878758265680582</v>
+        <v>1.018623070116346</v>
       </c>
       <c r="K23">
-        <v>1.000032648786931</v>
+        <v>1.022725138440477</v>
       </c>
       <c r="L23">
-        <v>0.9828232675952936</v>
+        <v>1.019323244895443</v>
       </c>
       <c r="M23">
-        <v>0.9339943433412589</v>
+        <v>1.010874635324492</v>
       </c>
       <c r="N23">
-        <v>0.999965682534971</v>
+        <v>1.01030879746528</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9645292245854843</v>
+        <v>1.013276979363967</v>
       </c>
       <c r="D24">
-        <v>0.9910008902763008</v>
+        <v>1.020168143363481</v>
       </c>
       <c r="E24">
-        <v>0.9746644901786132</v>
+        <v>1.017057276210911</v>
       </c>
       <c r="F24">
-        <v>0.9308118888179784</v>
+        <v>1.009620198199271</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033420942605282</v>
+        <v>1.026081177940522</v>
       </c>
       <c r="J24">
-        <v>0.9934645414267121</v>
+        <v>1.019623363521574</v>
       </c>
       <c r="K24">
-        <v>1.005187905167279</v>
+        <v>1.023594398677307</v>
       </c>
       <c r="L24">
-        <v>0.9891516298254575</v>
+        <v>1.020494800369738</v>
       </c>
       <c r="M24">
-        <v>0.9461736849971635</v>
+        <v>1.013084973707067</v>
       </c>
       <c r="N24">
-        <v>1.001832644493306</v>
+        <v>1.010641560293554</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9741556205500612</v>
+        <v>1.015058115811567</v>
       </c>
       <c r="D25">
-        <v>0.9981911424100551</v>
+        <v>1.021496885262632</v>
       </c>
       <c r="E25">
-        <v>0.9832385163693645</v>
+        <v>1.018743206716083</v>
       </c>
       <c r="F25">
-        <v>0.9459251870459863</v>
+        <v>1.012515750621543</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036268263891349</v>
+        <v>1.026416975170405</v>
       </c>
       <c r="J25">
-        <v>0.9995851914645831</v>
+        <v>1.020778752646161</v>
       </c>
       <c r="K25">
-        <v>1.010817603612407</v>
+        <v>1.024595054218338</v>
       </c>
       <c r="L25">
-        <v>0.9961027277502263</v>
+        <v>1.021850323510153</v>
       </c>
       <c r="M25">
-        <v>0.9594252629169048</v>
+        <v>1.015643299814961</v>
       </c>
       <c r="N25">
-        <v>1.003877414413307</v>
+        <v>1.011025717142098</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_33/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_33/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.016476390735124</v>
+        <v>0.9814571008238653</v>
       </c>
       <c r="D2">
-        <v>1.022552646142433</v>
+        <v>1.003644909147904</v>
       </c>
       <c r="E2">
-        <v>1.020086979618628</v>
+        <v>0.9897635975281437</v>
       </c>
       <c r="F2">
-        <v>1.014821749753253</v>
+        <v>0.9573000200547902</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.026676302298349</v>
+        <v>1.038366573716771</v>
       </c>
       <c r="J2">
-        <v>1.021695982334547</v>
+        <v>1.004206934338502</v>
       </c>
       <c r="K2">
-        <v>1.025386689852763</v>
+        <v>1.015053697089572</v>
       </c>
       <c r="L2">
-        <v>1.022928304666488</v>
+        <v>1.001367408170886</v>
       </c>
       <c r="M2">
-        <v>1.017678752510762</v>
+        <v>0.9693881268157326</v>
       </c>
       <c r="N2">
-        <v>1.011330523401674</v>
+        <v>1.005421308880189</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.017504854366392</v>
+        <v>0.9865625974817877</v>
       </c>
       <c r="D3">
-        <v>1.023316888935925</v>
+        <v>1.007456653051039</v>
       </c>
       <c r="E3">
-        <v>1.021062168632698</v>
+        <v>0.9943379269589466</v>
       </c>
       <c r="F3">
-        <v>1.016494260606749</v>
+        <v>0.9652156290069167</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.026859666256574</v>
+        <v>1.039797033399203</v>
       </c>
       <c r="J3">
-        <v>1.022359498193123</v>
+        <v>1.007426405413492</v>
       </c>
       <c r="K3">
-        <v>1.025957739132902</v>
+        <v>1.017995005442465</v>
       </c>
       <c r="L3">
-        <v>1.023709193589001</v>
+        <v>1.005043771404556</v>
       </c>
       <c r="M3">
-        <v>1.019153886183884</v>
+        <v>0.9763138179759429</v>
       </c>
       <c r="N3">
-        <v>1.011550920691649</v>
+        <v>1.006496605008989</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.01816973544207</v>
+        <v>0.9897820205153164</v>
       </c>
       <c r="D4">
-        <v>1.023810328467135</v>
+        <v>1.009858898942763</v>
       </c>
       <c r="E4">
-        <v>1.021692953420002</v>
+        <v>0.9972275647723389</v>
       </c>
       <c r="F4">
-        <v>1.017575687876625</v>
+        <v>0.9701930497766806</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.026976033760001</v>
+        <v>1.040681615121432</v>
       </c>
       <c r="J4">
-        <v>1.022787699749273</v>
+        <v>1.009450764683555</v>
       </c>
       <c r="K4">
-        <v>1.026325515551769</v>
+        <v>1.019839774344416</v>
       </c>
       <c r="L4">
-        <v>1.024213645874003</v>
+        <v>1.007359566217761</v>
       </c>
       <c r="M4">
-        <v>1.020107156435399</v>
+        <v>0.9806650479080471</v>
       </c>
       <c r="N4">
-        <v>1.011693109314546</v>
+        <v>1.007172628105172</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.018449108312485</v>
+        <v>0.9911162065079444</v>
       </c>
       <c r="D5">
-        <v>1.024017512857733</v>
+        <v>1.010854026815836</v>
       </c>
       <c r="E5">
-        <v>1.021958081687835</v>
+        <v>0.9984262828468913</v>
       </c>
       <c r="F5">
-        <v>1.01803013642167</v>
+        <v>0.9722529096650411</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.027024408447508</v>
+        <v>1.041043952696918</v>
       </c>
       <c r="J5">
-        <v>1.022967444191504</v>
+        <v>1.01028829149929</v>
       </c>
       <c r="K5">
-        <v>1.026479714776894</v>
+        <v>1.020601834801864</v>
       </c>
       <c r="L5">
-        <v>1.024425518547928</v>
+        <v>1.008318660364502</v>
       </c>
       <c r="M5">
-        <v>1.02050762119368</v>
+        <v>0.9824648278256169</v>
       </c>
       <c r="N5">
-        <v>1.011752784339893</v>
+        <v>1.007452285007326</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.018496007893239</v>
+        <v>0.9913391176111699</v>
       </c>
       <c r="D6">
-        <v>1.024052284927887</v>
+        <v>1.011020263210841</v>
       </c>
       <c r="E6">
-        <v>1.022002594768791</v>
+        <v>0.9986266300275615</v>
       </c>
       <c r="F6">
-        <v>1.018106429799416</v>
+        <v>0.9725969083997247</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.027032498737804</v>
+        <v>1.041104239068818</v>
       </c>
       <c r="J6">
-        <v>1.022997608178103</v>
+        <v>1.01042813945805</v>
       </c>
       <c r="K6">
-        <v>1.026505581238736</v>
+        <v>1.020729011864901</v>
       </c>
       <c r="L6">
-        <v>1.024461081253168</v>
+        <v>1.008478865695529</v>
       </c>
       <c r="M6">
-        <v>1.020574844175903</v>
+        <v>0.982765336632803</v>
       </c>
       <c r="N6">
-        <v>1.011762798119032</v>
+        <v>1.007498979450277</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.01817346899676</v>
+        <v>0.9897999225155503</v>
       </c>
       <c r="D7">
-        <v>1.023813097887095</v>
+        <v>1.009872253193331</v>
       </c>
       <c r="E7">
-        <v>1.021696496286695</v>
+        <v>0.9972436443729408</v>
       </c>
       <c r="F7">
-        <v>1.017581760951603</v>
+        <v>0.9702206995516094</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.026976682291311</v>
+        <v>1.040686493825673</v>
       </c>
       <c r="J7">
-        <v>1.022790102569071</v>
+        <v>1.009462008126118</v>
       </c>
       <c r="K7">
-        <v>1.026327577595653</v>
+        <v>1.019850009349045</v>
       </c>
       <c r="L7">
-        <v>1.024216477708217</v>
+        <v>1.007372437720876</v>
       </c>
       <c r="M7">
-        <v>1.02011250859646</v>
+        <v>0.98068921035654</v>
       </c>
       <c r="N7">
-        <v>1.011693907092019</v>
+        <v>1.007176382506309</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.016824090666164</v>
+        <v>0.9832005136392062</v>
       </c>
       <c r="D8">
-        <v>1.022811148609084</v>
+        <v>1.004946772123392</v>
       </c>
       <c r="E8">
-        <v>1.020416596983646</v>
+        <v>0.9913245200702432</v>
       </c>
       <c r="F8">
-        <v>1.015387152804022</v>
+        <v>0.9600062831028989</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.026738743309671</v>
+        <v>1.038858673237899</v>
       </c>
       <c r="J8">
-        <v>1.021920456681231</v>
+        <v>1.005307515944273</v>
       </c>
       <c r="K8">
-        <v>1.025580037184001</v>
+        <v>1.016060150595127</v>
       </c>
       <c r="L8">
-        <v>1.023192383156168</v>
+        <v>1.002623302927173</v>
       </c>
       <c r="M8">
-        <v>1.018177541652836</v>
+        <v>0.9717567034914668</v>
       </c>
       <c r="N8">
-        <v>1.011405095458603</v>
+        <v>1.005788920812239</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.014441627105252</v>
+        <v>0.9708832015241368</v>
       </c>
       <c r="D9">
-        <v>1.021037330938085</v>
+        <v>0.9957466023318035</v>
       </c>
       <c r="E9">
-        <v>1.018159467121475</v>
+        <v>0.9803202502644146</v>
       </c>
       <c r="F9">
-        <v>1.011513501422711</v>
+        <v>0.9408035448710721</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.026301995284589</v>
+        <v>1.035309899080172</v>
       </c>
       <c r="J9">
-        <v>1.020379278088183</v>
+        <v>0.997507772765571</v>
       </c>
       <c r="K9">
-        <v>1.024249504089819</v>
+        <v>1.008909066962547</v>
       </c>
       <c r="L9">
-        <v>1.021381362867317</v>
+        <v>0.9937408968215422</v>
       </c>
       <c r="M9">
-        <v>1.014758082428259</v>
+        <v>0.9549360731149267</v>
       </c>
       <c r="N9">
-        <v>1.010892920675948</v>
+        <v>1.003183401977218</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.012850075157405</v>
+        <v>0.9621416377668115</v>
       </c>
       <c r="D10">
-        <v>1.019849218441602</v>
+        <v>0.9892181663930882</v>
       </c>
       <c r="E10">
-        <v>1.016653455167724</v>
+        <v>0.9725427961712535</v>
       </c>
       <c r="F10">
-        <v>1.008926223100761</v>
+        <v>0.927040000698434</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.025999085395955</v>
+        <v>1.032702318862111</v>
       </c>
       <c r="J10">
-        <v>1.01934588410025</v>
+        <v>0.9919422124011151</v>
       </c>
       <c r="K10">
-        <v>1.023353532024105</v>
+        <v>1.003784857657721</v>
       </c>
       <c r="L10">
-        <v>1.020169631288091</v>
+        <v>0.9874261496914222</v>
       </c>
       <c r="M10">
-        <v>1.01247142637166</v>
+        <v>0.9428645837955114</v>
       </c>
       <c r="N10">
-        <v>1.010549268194339</v>
+        <v>1.001324076412124</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.012160124857675</v>
+        <v>0.9582136072576785</v>
       </c>
       <c r="D11">
-        <v>1.019333426928743</v>
+        <v>0.9862861978475462</v>
       </c>
       <c r="E11">
-        <v>1.016001022425425</v>
+        <v>0.9690563174798351</v>
       </c>
       <c r="F11">
-        <v>1.00780464385038</v>
+        <v>0.9208121394835769</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.025865135754988</v>
+        <v>1.031510441801925</v>
       </c>
       <c r="J11">
-        <v>1.01889699004852</v>
+        <v>0.9894343410869851</v>
       </c>
       <c r="K11">
-        <v>1.022963436223099</v>
+        <v>1.001471454759244</v>
       </c>
       <c r="L11">
-        <v>1.019643884122543</v>
+        <v>0.9845863707593555</v>
       </c>
       <c r="M11">
-        <v>1.011479519120227</v>
+        <v>0.9373996849747265</v>
       </c>
       <c r="N11">
-        <v>1.01039993647304</v>
+        <v>1.000486295286422</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.011903724755379</v>
+        <v>0.9567314480759862</v>
       </c>
       <c r="D12">
-        <v>1.019141638443923</v>
+        <v>0.9851802459005016</v>
       </c>
       <c r="E12">
-        <v>1.015758630473294</v>
+        <v>0.9677420805539355</v>
       </c>
       <c r="F12">
-        <v>1.007387838909833</v>
+        <v>0.9184545978988946</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.025814961918995</v>
+        <v>1.031057769971437</v>
       </c>
       <c r="J12">
-        <v>1.018730035029097</v>
+        <v>0.9884870103406687</v>
       </c>
       <c r="K12">
-        <v>1.022818215916679</v>
+        <v>1.00059698520314</v>
       </c>
       <c r="L12">
-        <v>1.019448437731894</v>
+        <v>0.9835145323909441</v>
       </c>
       <c r="M12">
-        <v>1.011110806341885</v>
+        <v>0.9353306542063744</v>
       </c>
       <c r="N12">
-        <v>1.010344388326815</v>
+        <v>1.00016984220464</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.01195872899328</v>
+        <v>0.9570504506612887</v>
       </c>
       <c r="D13">
-        <v>1.019182786810053</v>
+        <v>0.985418259498463</v>
       </c>
       <c r="E13">
-        <v>1.01581062662659</v>
+        <v>0.968024881266526</v>
       </c>
       <c r="F13">
-        <v>1.007477254210381</v>
+        <v>0.9189623695558846</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.025825743339378</v>
+        <v>1.031155329182369</v>
       </c>
       <c r="J13">
-        <v>1.018765857233094</v>
+        <v>0.9886909494851787</v>
       </c>
       <c r="K13">
-        <v>1.022849380719722</v>
+        <v>1.000785264871188</v>
       </c>
       <c r="L13">
-        <v>1.019490368929865</v>
+        <v>0.9837452357821785</v>
       </c>
       <c r="M13">
-        <v>1.011189909029613</v>
+        <v>0.935776298053439</v>
       </c>
       <c r="N13">
-        <v>1.010356307205335</v>
+        <v>1.00023796679139</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.012138933242285</v>
+        <v>0.9580915732097652</v>
       </c>
       <c r="D14">
-        <v>1.019317577727445</v>
+        <v>0.9861951307968859</v>
       </c>
       <c r="E14">
-        <v>1.015980987246383</v>
+        <v>0.9689480823704709</v>
       </c>
       <c r="F14">
-        <v>1.007770194769043</v>
+        <v>0.9206181914880834</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.025860996918003</v>
+        <v>1.031473230136393</v>
       </c>
       <c r="J14">
-        <v>1.018883193903979</v>
+        <v>0.9893563633436725</v>
       </c>
       <c r="K14">
-        <v>1.022951438827271</v>
+        <v>1.00139948619286</v>
       </c>
       <c r="L14">
-        <v>1.019627731744483</v>
+        <v>0.984498126694291</v>
       </c>
       <c r="M14">
-        <v>1.011449046850146</v>
+        <v>0.9372294775414809</v>
       </c>
       <c r="N14">
-        <v>1.010395346473944</v>
+        <v>1.000460246747387</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.012249946822873</v>
+        <v>0.9587299279884942</v>
       </c>
       <c r="D15">
-        <v>1.019400600267255</v>
+        <v>0.9866715141557356</v>
       </c>
       <c r="E15">
-        <v>1.016085945462126</v>
+        <v>0.9695143092640733</v>
       </c>
       <c r="F15">
-        <v>1.007950658264146</v>
+        <v>0.9216324091906614</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.025882662287967</v>
+        <v>1.031667763527477</v>
       </c>
       <c r="J15">
-        <v>1.018955460267248</v>
+        <v>0.9897642193041758</v>
       </c>
       <c r="K15">
-        <v>1.023014277589944</v>
+        <v>1.001775887738504</v>
       </c>
       <c r="L15">
-        <v>1.019712344202442</v>
+        <v>0.9849597151863674</v>
       </c>
       <c r="M15">
-        <v>1.01160867362178</v>
+        <v>0.9381195361874679</v>
       </c>
       <c r="N15">
-        <v>1.010419389283804</v>
+        <v>1.000596491980678</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.012895847909204</v>
+        <v>0.9623991813488639</v>
       </c>
       <c r="D16">
-        <v>1.019883421734023</v>
+        <v>0.9894104459844516</v>
       </c>
       <c r="E16">
-        <v>1.016696748130199</v>
+        <v>0.9727715670570193</v>
       </c>
       <c r="F16">
-        <v>1.009000631035384</v>
+        <v>0.9274473481855038</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.026007916446279</v>
+        <v>1.032780053738189</v>
       </c>
       <c r="J16">
-        <v>1.019375645531316</v>
+        <v>0.9921064984638585</v>
       </c>
       <c r="K16">
-        <v>1.023379376373581</v>
+        <v>1.003936318366243</v>
       </c>
       <c r="L16">
-        <v>1.020204500963342</v>
+        <v>0.9876122973641018</v>
       </c>
       <c r="M16">
-        <v>1.012537217986221</v>
+        <v>0.9432219803395349</v>
       </c>
       <c r="N16">
-        <v>1.010559167693685</v>
+        <v>1.001378959323918</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.013300789610139</v>
+        <v>0.9646614465826486</v>
       </c>
       <c r="D17">
-        <v>1.020185926139217</v>
+        <v>0.9910996262930309</v>
       </c>
       <c r="E17">
-        <v>1.01707980197855</v>
+        <v>0.9747820430577318</v>
       </c>
       <c r="F17">
-        <v>1.009658904289367</v>
+        <v>0.9310204830442724</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.026085738625605</v>
+        <v>1.033460604384574</v>
       </c>
       <c r="J17">
-        <v>1.019638833519212</v>
+        <v>0.9935487996938448</v>
       </c>
       <c r="K17">
-        <v>1.023607821343931</v>
+        <v>1.005265531982232</v>
       </c>
       <c r="L17">
-        <v>1.0205129333394</v>
+        <v>0.9892471700964491</v>
       </c>
       <c r="M17">
-        <v>1.013119189572171</v>
+        <v>0.9463566681892267</v>
       </c>
       <c r="N17">
-        <v>1.01064670538907</v>
+        <v>1.001860793128878</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.013536908412882</v>
+        <v>0.9659673225789924</v>
       </c>
       <c r="D18">
-        <v>1.020362243464751</v>
+        <v>0.9920748347642872</v>
       </c>
       <c r="E18">
-        <v>1.017303200062479</v>
+        <v>0.9759433573101087</v>
       </c>
       <c r="F18">
-        <v>1.010042741990841</v>
+        <v>0.933079051635067</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.026130862029682</v>
+        <v>1.033851539237588</v>
       </c>
       <c r="J18">
-        <v>1.019792208963174</v>
+        <v>0.9943806982203918</v>
       </c>
       <c r="K18">
-        <v>1.023740863584563</v>
+        <v>1.006031783638615</v>
       </c>
       <c r="L18">
-        <v>1.020692734601307</v>
+        <v>0.9901906750881588</v>
       </c>
       <c r="M18">
-        <v>1.013458473530085</v>
+        <v>0.9481623788597674</v>
       </c>
       <c r="N18">
-        <v>1.010697713734681</v>
+        <v>1.002138711313073</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.013617405848393</v>
+        <v>0.9664103218939168</v>
       </c>
       <c r="D19">
-        <v>1.020422341358476</v>
+        <v>0.9924056803824705</v>
       </c>
       <c r="E19">
-        <v>1.017379367861449</v>
+        <v>0.9763374470260843</v>
       </c>
       <c r="F19">
-        <v>1.010173600330974</v>
+        <v>0.9337767430859311</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.026146202329089</v>
+        <v>1.033983832011266</v>
       </c>
       <c r="J19">
-        <v>1.019844482715562</v>
+        <v>0.9946627954305771</v>
       </c>
       <c r="K19">
-        <v>1.023786192657462</v>
+        <v>1.006291546968882</v>
       </c>
       <c r="L19">
-        <v>1.020754024902271</v>
+        <v>0.9905107082959321</v>
       </c>
       <c r="M19">
-        <v>1.013574131969901</v>
+        <v>0.9487743251378195</v>
       </c>
       <c r="N19">
-        <v>1.010715097638238</v>
+        <v>1.002232953894815</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.013257351161255</v>
+        <v>0.9644201517129003</v>
       </c>
       <c r="D20">
-        <v>1.020153483562955</v>
+        <v>0.9909194415199832</v>
       </c>
       <c r="E20">
-        <v>1.017038707116658</v>
+        <v>0.9745675226081431</v>
       </c>
       <c r="F20">
-        <v>1.009588290484273</v>
+        <v>0.9306397922965688</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.026077416863208</v>
+        <v>1.033388213900214</v>
       </c>
       <c r="J20">
-        <v>1.019610610187458</v>
+        <v>0.9933950311682819</v>
       </c>
       <c r="K20">
-        <v>1.023583332658252</v>
+        <v>1.005123863249491</v>
       </c>
       <c r="L20">
-        <v>1.020479852038026</v>
+        <v>0.989072815314236</v>
       </c>
       <c r="M20">
-        <v>1.013056767197714</v>
+        <v>0.9460227168747696</v>
       </c>
       <c r="N20">
-        <v>1.01063731869177</v>
+        <v>1.00180942282673</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.012085870961844</v>
+        <v>0.9577856407731844</v>
       </c>
       <c r="D21">
-        <v>1.019277890702903</v>
+        <v>0.9859668371694033</v>
       </c>
       <c r="E21">
-        <v>1.015930821664215</v>
+        <v>0.9686767644161728</v>
       </c>
       <c r="F21">
-        <v>1.00768393668694</v>
+        <v>0.9201318487068636</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.0258506271849</v>
+        <v>1.031379895554096</v>
       </c>
       <c r="J21">
-        <v>1.018848647146078</v>
+        <v>0.9891608608792865</v>
       </c>
       <c r="K21">
-        <v>1.022921394135487</v>
+        <v>1.001219040288073</v>
       </c>
       <c r="L21">
-        <v>1.019587286260138</v>
+        <v>0.984276898969318</v>
       </c>
       <c r="M21">
-        <v>1.01137274485892</v>
+        <v>0.9368026618598561</v>
       </c>
       <c r="N21">
-        <v>1.010383852585455</v>
+        <v>1.00039493919404</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C22">
-        <v>1.011348608933959</v>
+        <v>0.9534795763873236</v>
       </c>
       <c r="D22">
-        <v>1.018726210081598</v>
+        <v>0.982754593439939</v>
       </c>
       <c r="E22">
-        <v>1.015233963708323</v>
+        <v>0.9648611190400165</v>
       </c>
       <c r="F22">
-        <v>1.006485429235899</v>
+        <v>0.9132667876558737</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.02570561136141</v>
+        <v>1.030059282010336</v>
       </c>
       <c r="J22">
-        <v>1.018368321637587</v>
+        <v>0.9864066521293646</v>
       </c>
       <c r="K22">
-        <v>1.022503347454331</v>
+        <v>0.9986756052050499</v>
       </c>
       <c r="L22">
-        <v>1.019025165545804</v>
+        <v>0.9811623719850195</v>
       </c>
       <c r="M22">
-        <v>1.010312342224106</v>
+        <v>0.9307772679195705</v>
       </c>
       <c r="N22">
-        <v>1.010224027094827</v>
+        <v>0.9994749360292065</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.011739513065744</v>
+        <v>0.9557756686981511</v>
       </c>
       <c r="D23">
-        <v>1.019018776635693</v>
+        <v>0.9844671851104652</v>
       </c>
       <c r="E23">
-        <v>1.015603408904001</v>
+        <v>0.9668949645480146</v>
       </c>
       <c r="F23">
-        <v>1.007120894319112</v>
+        <v>0.9169320321939705</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.025782716832332</v>
+        <v>1.03076504361753</v>
       </c>
       <c r="J23">
-        <v>1.018623070116346</v>
+        <v>0.9878758265680583</v>
       </c>
       <c r="K23">
-        <v>1.022725138440477</v>
+        <v>1.000032648786931</v>
       </c>
       <c r="L23">
-        <v>1.019323244895443</v>
+        <v>0.9828232675952937</v>
       </c>
       <c r="M23">
-        <v>1.010874635324492</v>
+        <v>0.9339943433412591</v>
       </c>
       <c r="N23">
-        <v>1.01030879746528</v>
+        <v>0.9999656825349711</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.013276979363967</v>
+        <v>0.9645292245854846</v>
       </c>
       <c r="D24">
-        <v>1.020168143363481</v>
+        <v>0.9910008902763011</v>
       </c>
       <c r="E24">
-        <v>1.017057276210911</v>
+        <v>0.974664490178614</v>
       </c>
       <c r="F24">
-        <v>1.009620198199271</v>
+        <v>0.9308118888179788</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.026081177940522</v>
+        <v>1.033420942605282</v>
       </c>
       <c r="J24">
-        <v>1.019623363521574</v>
+        <v>0.9934645414267125</v>
       </c>
       <c r="K24">
-        <v>1.023594398677307</v>
+        <v>1.005187905167279</v>
       </c>
       <c r="L24">
-        <v>1.020494800369738</v>
+        <v>0.9891516298254582</v>
       </c>
       <c r="M24">
-        <v>1.013084973707067</v>
+        <v>0.9461736849971637</v>
       </c>
       <c r="N24">
-        <v>1.010641560293554</v>
+        <v>1.001832644493306</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.015058115811567</v>
+        <v>0.974155620550061</v>
       </c>
       <c r="D25">
-        <v>1.021496885262632</v>
+        <v>0.9981911424100548</v>
       </c>
       <c r="E25">
-        <v>1.018743206716083</v>
+        <v>0.9832385163693637</v>
       </c>
       <c r="F25">
-        <v>1.012515750621543</v>
+        <v>0.9459251870459855</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.026416975170405</v>
+        <v>1.036268263891349</v>
       </c>
       <c r="J25">
-        <v>1.020778752646161</v>
+        <v>0.9995851914645826</v>
       </c>
       <c r="K25">
-        <v>1.024595054218338</v>
+        <v>1.010817603612407</v>
       </c>
       <c r="L25">
-        <v>1.021850323510153</v>
+        <v>0.9961027277502255</v>
       </c>
       <c r="M25">
-        <v>1.015643299814961</v>
+        <v>0.9594252629169039</v>
       </c>
       <c r="N25">
-        <v>1.011025717142098</v>
+        <v>1.003877414413307</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_33/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_33/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9814571008238653</v>
+        <v>1.015389807478335</v>
       </c>
       <c r="D2">
-        <v>1.003644909147904</v>
+        <v>1.031624810041486</v>
       </c>
       <c r="E2">
-        <v>0.9897635975281437</v>
+        <v>1.023465102072606</v>
       </c>
       <c r="F2">
-        <v>0.9573000200547902</v>
+        <v>1.023289106081828</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038366573716771</v>
+        <v>1.052367418069595</v>
       </c>
       <c r="J2">
-        <v>1.004206934338502</v>
+        <v>1.037119757446656</v>
       </c>
       <c r="K2">
-        <v>1.015053697089572</v>
+        <v>1.04266046459995</v>
       </c>
       <c r="L2">
-        <v>1.001367408170886</v>
+        <v>1.034606930615969</v>
       </c>
       <c r="M2">
-        <v>0.9693881268157326</v>
+        <v>1.034433248066139</v>
       </c>
       <c r="N2">
-        <v>1.005421308880189</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.015299177118379</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.035823981230282</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.041234926194177</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9865625974817877</v>
+        <v>1.019993871457939</v>
       </c>
       <c r="D3">
-        <v>1.007456653051039</v>
+        <v>1.034777216560416</v>
       </c>
       <c r="E3">
-        <v>0.9943379269589466</v>
+        <v>1.027580611254898</v>
       </c>
       <c r="F3">
-        <v>0.9652156290069167</v>
+        <v>1.026679715573384</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039797033399203</v>
+        <v>1.05388517268081</v>
       </c>
       <c r="J3">
-        <v>1.007426405413492</v>
+        <v>1.039953935608579</v>
       </c>
       <c r="K3">
-        <v>1.017995005442465</v>
+        <v>1.044983643711937</v>
       </c>
       <c r="L3">
-        <v>1.005043771404556</v>
+        <v>1.037872348076044</v>
       </c>
       <c r="M3">
-        <v>0.9763138179759429</v>
+        <v>1.036982236224614</v>
       </c>
       <c r="N3">
-        <v>1.006496605008989</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.016345694699428</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.037841344787841</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.042874951813593</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9897820205153164</v>
+        <v>1.02290800809797</v>
       </c>
       <c r="D4">
-        <v>1.009858898942763</v>
+        <v>1.036775766416317</v>
       </c>
       <c r="E4">
-        <v>0.9972275647723389</v>
+        <v>1.030190283009856</v>
       </c>
       <c r="F4">
-        <v>0.9701930497766806</v>
+        <v>1.028835482041361</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.040681615121432</v>
+        <v>1.054834929857574</v>
       </c>
       <c r="J4">
-        <v>1.009450764683555</v>
+        <v>1.041743338337859</v>
       </c>
       <c r="K4">
-        <v>1.019839774344416</v>
+        <v>1.046449711392901</v>
       </c>
       <c r="L4">
-        <v>1.007359566217761</v>
+        <v>1.039937496494955</v>
       </c>
       <c r="M4">
-        <v>0.9806650479080471</v>
+        <v>1.03859791198433</v>
       </c>
       <c r="N4">
-        <v>1.007172628105172</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.017005821735862</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.039120047419657</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.043912471192799</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9911162065079444</v>
+        <v>1.024123954762374</v>
       </c>
       <c r="D5">
-        <v>1.010854026815836</v>
+        <v>1.037612872652381</v>
       </c>
       <c r="E5">
-        <v>0.9984262828468913</v>
+        <v>1.031280885617372</v>
       </c>
       <c r="F5">
-        <v>0.9722529096650411</v>
+        <v>1.029735464243007</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041043952696918</v>
+        <v>1.055230567017931</v>
       </c>
       <c r="J5">
-        <v>1.01028829149929</v>
+        <v>1.042490992007565</v>
       </c>
       <c r="K5">
-        <v>1.020601834801864</v>
+        <v>1.047063819694103</v>
       </c>
       <c r="L5">
-        <v>1.008318660364502</v>
+        <v>1.040800371100299</v>
       </c>
       <c r="M5">
-        <v>0.9824648278256169</v>
+        <v>1.039271834729333</v>
       </c>
       <c r="N5">
-        <v>1.007452285007326</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.017283243834087</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.039653412912602</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.044353822626144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9913391176111699</v>
+        <v>1.024334381485366</v>
       </c>
       <c r="D6">
-        <v>1.011020263210841</v>
+        <v>1.03776076821349</v>
       </c>
       <c r="E6">
-        <v>0.9986266300275615</v>
+        <v>1.031470390704383</v>
       </c>
       <c r="F6">
-        <v>0.9725969083997247</v>
+        <v>1.029889145665483</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041104239068818</v>
+        <v>1.055301318563201</v>
       </c>
       <c r="J6">
-        <v>1.01042813945805</v>
+        <v>1.042622893788508</v>
       </c>
       <c r="K6">
-        <v>1.020729011864901</v>
+        <v>1.047174241827041</v>
       </c>
       <c r="L6">
-        <v>1.008478865695529</v>
+        <v>1.040951634354104</v>
       </c>
       <c r="M6">
-        <v>0.982765336632803</v>
+        <v>1.03938758480471</v>
       </c>
       <c r="N6">
-        <v>1.007498979450277</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.017334318733284</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.039745021438368</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.044440592418181</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9897999225155503</v>
+        <v>1.022943616267828</v>
       </c>
       <c r="D7">
-        <v>1.009872253193331</v>
+        <v>1.036808292871022</v>
       </c>
       <c r="E7">
-        <v>0.9972436443729408</v>
+        <v>1.030224118801873</v>
       </c>
       <c r="F7">
-        <v>0.9702206995516094</v>
+        <v>1.028855884583079</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.040686493825673</v>
+        <v>1.05485309755863</v>
       </c>
       <c r="J7">
-        <v>1.009462008126118</v>
+        <v>1.041772206678072</v>
       </c>
       <c r="K7">
-        <v>1.019850009349045</v>
+        <v>1.046479019454912</v>
       </c>
       <c r="L7">
-        <v>1.007372437720876</v>
+        <v>1.039968069139642</v>
       </c>
       <c r="M7">
-        <v>0.98068921035654</v>
+        <v>1.038615196133328</v>
       </c>
       <c r="N7">
-        <v>1.007176382506309</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.017022393000842</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.039133726690845</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.043953193645675</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9832005136392062</v>
+        <v>1.016984261653078</v>
       </c>
       <c r="D8">
-        <v>1.004946772123392</v>
+        <v>1.03272585691148</v>
       </c>
       <c r="E8">
-        <v>0.9913245200702432</v>
+        <v>1.02489181547107</v>
       </c>
       <c r="F8">
-        <v>0.9600062831028989</v>
+        <v>1.024453766501126</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038858673237899</v>
+        <v>1.052903440582858</v>
       </c>
       <c r="J8">
-        <v>1.005307515944273</v>
+        <v>1.038111001677726</v>
       </c>
       <c r="K8">
-        <v>1.016060150595127</v>
+        <v>1.043480057038244</v>
       </c>
       <c r="L8">
-        <v>1.002623302927173</v>
+        <v>1.035744845706631</v>
       </c>
       <c r="M8">
-        <v>0.9717567034914668</v>
+        <v>1.035312378668291</v>
       </c>
       <c r="N8">
-        <v>1.005788920812239</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.015673116620863</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.036519758369011</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.041837256436361</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9708832015241368</v>
+        <v>1.005927049707818</v>
       </c>
       <c r="D9">
-        <v>0.9957466023318035</v>
+        <v>1.025166430734677</v>
       </c>
       <c r="E9">
-        <v>0.9803202502644146</v>
+        <v>1.015034597540963</v>
       </c>
       <c r="F9">
-        <v>0.9408035448710721</v>
+        <v>1.016375658945651</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035309899080172</v>
+        <v>1.049190185442694</v>
       </c>
       <c r="J9">
-        <v>0.997507772765571</v>
+        <v>1.031272230774971</v>
       </c>
       <c r="K9">
-        <v>1.008909066962547</v>
+        <v>1.037863981780892</v>
       </c>
       <c r="L9">
-        <v>0.9937408968215422</v>
+        <v>1.027888369016044</v>
       </c>
       <c r="M9">
-        <v>0.9549360731149267</v>
+        <v>1.029208524334157</v>
       </c>
       <c r="N9">
-        <v>1.003183401977218</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.013138201347307</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.031688923521966</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.037863162719992</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9621416377668115</v>
+        <v>0.9983402276553692</v>
       </c>
       <c r="D10">
-        <v>0.9892181663930882</v>
+        <v>1.020020253162072</v>
       </c>
       <c r="E10">
-        <v>0.9725427961712535</v>
+        <v>1.008317986451948</v>
       </c>
       <c r="F10">
-        <v>0.927040000698434</v>
+        <v>1.011113680211256</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032702318862111</v>
+        <v>1.046624209388393</v>
       </c>
       <c r="J10">
-        <v>0.9919422124011151</v>
+        <v>1.026619853033018</v>
       </c>
       <c r="K10">
-        <v>1.003784857657721</v>
+        <v>1.034037205436381</v>
       </c>
       <c r="L10">
-        <v>0.9874261496914222</v>
+        <v>1.022538663804227</v>
       </c>
       <c r="M10">
-        <v>0.9428645837955114</v>
+        <v>1.025285131720181</v>
       </c>
       <c r="N10">
-        <v>1.001324076412124</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.01144219345365</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.02863583595559</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.035174188702904</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9582136072576785</v>
+        <v>0.9963406168136617</v>
       </c>
       <c r="D11">
-        <v>0.9862861978475462</v>
+        <v>1.018807054914771</v>
       </c>
       <c r="E11">
-        <v>0.9690563174798351</v>
+        <v>1.006697798885357</v>
       </c>
       <c r="F11">
-        <v>0.9208121394835769</v>
+        <v>1.011529903179454</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.031510441801925</v>
+        <v>1.04621490063344</v>
       </c>
       <c r="J11">
-        <v>0.9894343410869851</v>
+        <v>1.025866426799467</v>
       </c>
       <c r="K11">
-        <v>1.001471454759244</v>
+        <v>1.033382804338761</v>
       </c>
       <c r="L11">
-        <v>0.9845863707593555</v>
+        <v>1.021494500324872</v>
       </c>
       <c r="M11">
-        <v>0.9373996849747265</v>
+        <v>1.02623760950128</v>
       </c>
       <c r="N11">
-        <v>1.000486295286422</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.011416889827958</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.029830228889846</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.034744353068437</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9567314480759862</v>
+        <v>0.9960550869935137</v>
       </c>
       <c r="D12">
-        <v>0.9851802459005016</v>
+        <v>1.01870915508162</v>
       </c>
       <c r="E12">
-        <v>0.9677420805539355</v>
+        <v>1.006549840868376</v>
       </c>
       <c r="F12">
-        <v>0.9184545978988946</v>
+        <v>1.012599162932457</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031057769971437</v>
+        <v>1.046308739918586</v>
       </c>
       <c r="J12">
-        <v>0.9884870103406687</v>
+        <v>1.026027346100518</v>
       </c>
       <c r="K12">
-        <v>1.00059698520314</v>
+        <v>1.033486485608051</v>
       </c>
       <c r="L12">
-        <v>0.9835145323909441</v>
+        <v>1.021552622960417</v>
       </c>
       <c r="M12">
-        <v>0.9353306542063744</v>
+        <v>1.027488899135694</v>
       </c>
       <c r="N12">
-        <v>1.00016984220464</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.011666772401472</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.031148978295171</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.034817659104575</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9570504506612887</v>
+        <v>0.997088195973509</v>
       </c>
       <c r="D13">
-        <v>0.985418259498463</v>
+        <v>1.019483851555883</v>
       </c>
       <c r="E13">
-        <v>0.968024881266526</v>
+        <v>1.007541771677545</v>
       </c>
       <c r="F13">
-        <v>0.9189623695558846</v>
+        <v>1.014270424534062</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031155329182369</v>
+        <v>1.046813167756366</v>
       </c>
       <c r="J13">
-        <v>0.9886909494851787</v>
+        <v>1.026923227972079</v>
       </c>
       <c r="K13">
-        <v>1.000785264871188</v>
+        <v>1.034204241285896</v>
       </c>
       <c r="L13">
-        <v>0.9837452357821785</v>
+        <v>1.022482342138463</v>
       </c>
       <c r="M13">
-        <v>0.935776298053439</v>
+        <v>1.029086105408546</v>
       </c>
       <c r="N13">
-        <v>1.00023796679139</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.012160131331709</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.032690254520082</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.035322643740321</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9580915732097652</v>
+        <v>0.998391783753325</v>
       </c>
       <c r="D14">
-        <v>0.9861951307968859</v>
+        <v>1.020410189807965</v>
       </c>
       <c r="E14">
-        <v>0.9689480823704709</v>
+        <v>1.008736077067136</v>
       </c>
       <c r="F14">
-        <v>0.9206181914880834</v>
+        <v>1.015682975998703</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.031473230136393</v>
+        <v>1.047343710765367</v>
       </c>
       <c r="J14">
-        <v>0.9893563633436725</v>
+        <v>1.027867369703934</v>
       </c>
       <c r="K14">
-        <v>1.00139948619286</v>
+        <v>1.034973676227023</v>
       </c>
       <c r="L14">
-        <v>0.984498126694291</v>
+        <v>1.023511858387648</v>
       </c>
       <c r="M14">
-        <v>0.9372294775414809</v>
+        <v>1.03033166249684</v>
       </c>
       <c r="N14">
-        <v>1.000460246747387</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.012609358394455</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.033848999444159</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.03586808293727</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9587299279884942</v>
+        <v>0.9990164262226496</v>
       </c>
       <c r="D15">
-        <v>0.9866715141557356</v>
+        <v>1.020843628376137</v>
       </c>
       <c r="E15">
-        <v>0.9695143092640733</v>
+        <v>1.009295919386991</v>
       </c>
       <c r="F15">
-        <v>0.9216324091906614</v>
+        <v>1.016209794564843</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.031667763527477</v>
+        <v>1.047574669111278</v>
       </c>
       <c r="J15">
-        <v>0.9897642193041758</v>
+        <v>1.028278843391911</v>
       </c>
       <c r="K15">
-        <v>1.001775887738504</v>
+        <v>1.035313080068011</v>
       </c>
       <c r="L15">
-        <v>0.9849597151863674</v>
+        <v>1.023973666354933</v>
       </c>
       <c r="M15">
-        <v>0.9381195361874679</v>
+        <v>1.030762091447281</v>
       </c>
       <c r="N15">
-        <v>1.000596491980678</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.012782396664826</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.034226899639967</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.036113917352642</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9623991813488639</v>
+        <v>1.002005782257273</v>
       </c>
       <c r="D16">
-        <v>0.9894104459844516</v>
+        <v>1.02285537754101</v>
       </c>
       <c r="E16">
-        <v>0.9727715670570193</v>
+        <v>1.011921042716772</v>
       </c>
       <c r="F16">
-        <v>0.9274473481855038</v>
+        <v>1.018147082311121</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032780053738189</v>
+        <v>1.048566595455219</v>
       </c>
       <c r="J16">
-        <v>0.9921064984638585</v>
+        <v>1.030063513847636</v>
       </c>
       <c r="K16">
-        <v>1.003936318366243</v>
+        <v>1.036788375684845</v>
       </c>
       <c r="L16">
-        <v>0.9876122973641018</v>
+        <v>1.02604228837503</v>
       </c>
       <c r="M16">
-        <v>0.9432219803395349</v>
+        <v>1.032160498562162</v>
       </c>
       <c r="N16">
-        <v>1.001378959323918</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.013399507873356</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.035293321368524</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.037160159169347</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9646614465826486</v>
+        <v>1.00363002925157</v>
       </c>
       <c r="D17">
-        <v>0.9910996262930309</v>
+        <v>1.023924963640749</v>
       </c>
       <c r="E17">
-        <v>0.9747820430577318</v>
+        <v>1.013324013712354</v>
       </c>
       <c r="F17">
-        <v>0.9310204830442724</v>
+        <v>1.018901793258777</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033460604384574</v>
+        <v>1.04905411480686</v>
       </c>
       <c r="J17">
-        <v>0.9935487996938448</v>
+        <v>1.030949421973616</v>
       </c>
       <c r="K17">
-        <v>1.005265531982232</v>
+        <v>1.037526114373042</v>
       </c>
       <c r="L17">
-        <v>0.9892471700964491</v>
+        <v>1.027102389406889</v>
       </c>
       <c r="M17">
-        <v>0.9463566681892267</v>
+        <v>1.032586328185685</v>
       </c>
       <c r="N17">
-        <v>1.001860793128878</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.013642517621057</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.035500324676579</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.037684346915938</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9659673225789924</v>
+        <v>1.004165181080523</v>
       </c>
       <c r="D18">
-        <v>0.9920748347642872</v>
+        <v>1.02422491322174</v>
       </c>
       <c r="E18">
-        <v>0.9759433573101087</v>
+        <v>1.013735640482798</v>
       </c>
       <c r="F18">
-        <v>0.933079051635067</v>
+        <v>1.018531603756643</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033851539237588</v>
+        <v>1.049113699504074</v>
       </c>
       <c r="J18">
-        <v>0.9943806982203918</v>
+        <v>1.031071751169538</v>
       </c>
       <c r="K18">
-        <v>1.006031783638615</v>
+        <v>1.037638196157335</v>
       </c>
       <c r="L18">
-        <v>0.9901906750881588</v>
+        <v>1.027321417368042</v>
       </c>
       <c r="M18">
-        <v>0.9481623788597674</v>
+        <v>1.032037944908712</v>
       </c>
       <c r="N18">
-        <v>1.002138711313073</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.013548933805601</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.034827897834074</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.037751978466358</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9664103218939168</v>
+        <v>1.003694861015567</v>
       </c>
       <c r="D19">
-        <v>0.9924056803824705</v>
+        <v>1.023823991110665</v>
       </c>
       <c r="E19">
-        <v>0.9763374470260843</v>
+        <v>1.013229707791765</v>
       </c>
       <c r="F19">
-        <v>0.9337767430859311</v>
+        <v>1.017040230720789</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033983832011266</v>
+        <v>1.048781625773687</v>
       </c>
       <c r="J19">
-        <v>0.9946627954305771</v>
+        <v>1.030485188478389</v>
       </c>
       <c r="K19">
-        <v>1.006291546968882</v>
+        <v>1.037181374935332</v>
       </c>
       <c r="L19">
-        <v>0.9905107082959321</v>
+        <v>1.026760580728286</v>
       </c>
       <c r="M19">
-        <v>0.9487743251378195</v>
+        <v>1.030508168266593</v>
       </c>
       <c r="N19">
-        <v>1.002232953894815</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.013159829356873</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.033290579104945</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.037435377721567</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9644201517129003</v>
+        <v>1.000371203641628</v>
       </c>
       <c r="D20">
-        <v>0.9909194415199832</v>
+        <v>1.021417363136609</v>
       </c>
       <c r="E20">
-        <v>0.9745675226081431</v>
+        <v>1.010120097442218</v>
       </c>
       <c r="F20">
-        <v>0.9306397922965688</v>
+        <v>1.012514478478108</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033388213900214</v>
+        <v>1.047332784840622</v>
       </c>
       <c r="J20">
-        <v>0.9933950311682819</v>
+        <v>1.027887823506621</v>
       </c>
       <c r="K20">
-        <v>1.005123863249491</v>
+        <v>1.035093785739664</v>
       </c>
       <c r="L20">
-        <v>0.989072815314236</v>
+        <v>1.023987301067451</v>
       </c>
       <c r="M20">
-        <v>0.9460227168747696</v>
+        <v>1.026340788204906</v>
       </c>
       <c r="N20">
-        <v>1.00180942282673</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.011924143428818</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.029460611538132</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.035963307493291</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,81 +1440,105 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9577856407731844</v>
+        <v>0.9943751443244745</v>
       </c>
       <c r="D21">
-        <v>0.9859668371694033</v>
+        <v>1.017329552161493</v>
       </c>
       <c r="E21">
-        <v>0.9686767644161728</v>
+        <v>1.004794385059337</v>
       </c>
       <c r="F21">
-        <v>0.9201318487068636</v>
+        <v>1.008024076959734</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031379895554096</v>
+        <v>1.045230565869251</v>
       </c>
       <c r="J21">
-        <v>0.9891608608792865</v>
+        <v>1.02410993555102</v>
       </c>
       <c r="K21">
-        <v>1.001219040288073</v>
+        <v>1.031989884074852</v>
       </c>
       <c r="L21">
-        <v>0.984276898969318</v>
+        <v>1.019685492093431</v>
       </c>
       <c r="M21">
-        <v>0.9368026618598561</v>
+        <v>1.022855008831506</v>
       </c>
       <c r="N21">
-        <v>1.00039493919404</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.010498620476656</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.026660461295777</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.033771978384382</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9534795763873236</v>
+        <v>0.9905705229921942</v>
       </c>
       <c r="D22">
-        <v>0.982754593439939</v>
+        <v>1.01474142305977</v>
       </c>
       <c r="E22">
-        <v>0.9648611190400165</v>
+        <v>1.001428566147882</v>
       </c>
       <c r="F22">
-        <v>0.9132667876558737</v>
+        <v>1.005307839193246</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.030059282010336</v>
+        <v>1.043895884587948</v>
       </c>
       <c r="J22">
-        <v>0.9864066521293646</v>
+        <v>1.021730237835691</v>
       </c>
       <c r="K22">
-        <v>0.9986756052050499</v>
+        <v>1.030026398798418</v>
       </c>
       <c r="L22">
-        <v>0.9811623719850195</v>
+        <v>1.016971775885901</v>
       </c>
       <c r="M22">
-        <v>0.9307772679195705</v>
+        <v>1.020774875024378</v>
       </c>
       <c r="N22">
-        <v>0.9994749360292065</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.009606369071683</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.025014140449161</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.032370185704443</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9557756686981511</v>
+        <v>0.9925766438657803</v>
       </c>
       <c r="D23">
-        <v>0.9844671851104652</v>
+        <v>1.016098109728907</v>
       </c>
       <c r="E23">
-        <v>0.9668949645480146</v>
+        <v>1.003200549131636</v>
       </c>
       <c r="F23">
-        <v>0.9169320321939705</v>
+        <v>1.006744376517829</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.03076504361753</v>
+        <v>1.04459485953772</v>
       </c>
       <c r="J23">
-        <v>0.9878758265680583</v>
+        <v>1.022978637437812</v>
       </c>
       <c r="K23">
-        <v>1.000032648786931</v>
+        <v>1.031051678721361</v>
       </c>
       <c r="L23">
-        <v>0.9828232675952937</v>
+        <v>1.018397519784208</v>
       </c>
       <c r="M23">
-        <v>0.9339943433412591</v>
+        <v>1.021873655718555</v>
       </c>
       <c r="N23">
-        <v>0.9999656825349711</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.010067613769556</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.025883770366733</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.03308544881094</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9645292245854846</v>
+        <v>1.000305160060618</v>
       </c>
       <c r="D24">
-        <v>0.9910008902763011</v>
+        <v>1.021348476729485</v>
       </c>
       <c r="E24">
-        <v>0.974664490178614</v>
+        <v>1.010044791054141</v>
       </c>
       <c r="F24">
-        <v>0.9308118888179788</v>
+        <v>1.01229762745441</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033420942605282</v>
+        <v>1.047275059296877</v>
       </c>
       <c r="J24">
-        <v>0.9934645414267125</v>
+        <v>1.027791468155636</v>
       </c>
       <c r="K24">
-        <v>1.005187905167279</v>
+        <v>1.035010781951499</v>
       </c>
       <c r="L24">
-        <v>0.9891516298254582</v>
+        <v>1.023897775633624</v>
       </c>
       <c r="M24">
-        <v>0.9461736849971637</v>
+        <v>1.026112170708566</v>
       </c>
       <c r="N24">
-        <v>1.001832644493306</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.011856408624626</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.029238332472499</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.035877218112307</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.974155620550061</v>
+        <v>1.008884248862931</v>
       </c>
       <c r="D25">
-        <v>0.9981911424100548</v>
+        <v>1.027197200436077</v>
       </c>
       <c r="E25">
-        <v>0.9832385163693637</v>
+        <v>1.01766924786196</v>
       </c>
       <c r="F25">
-        <v>0.9459251870459855</v>
+        <v>1.01851678492328</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036268263891349</v>
+        <v>1.050203151081427</v>
       </c>
       <c r="J25">
-        <v>0.9995851914645826</v>
+        <v>1.033116277638223</v>
       </c>
       <c r="K25">
-        <v>1.010817603612407</v>
+        <v>1.039387491563323</v>
       </c>
       <c r="L25">
-        <v>0.9961027277502255</v>
+        <v>1.029999326676616</v>
       </c>
       <c r="M25">
-        <v>0.9594252629169039</v>
+        <v>1.030834294574599</v>
       </c>
       <c r="N25">
-        <v>1.003877414413307</v>
+        <v>1.013832780273128</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.032975626463102</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.038968905457047</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_33/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_33/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.015389807478335</v>
+        <v>1.014502119301165</v>
       </c>
       <c r="D2">
-        <v>1.031624810041486</v>
+        <v>1.030185328484342</v>
       </c>
       <c r="E2">
-        <v>1.023465102072606</v>
+        <v>1.022582997178841</v>
       </c>
       <c r="F2">
-        <v>1.023289106081828</v>
+        <v>1.022904567030356</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.052367418069595</v>
+        <v>1.05159657839555</v>
       </c>
       <c r="J2">
-        <v>1.037119757446656</v>
+        <v>1.036257560427972</v>
       </c>
       <c r="K2">
-        <v>1.04266046459995</v>
+        <v>1.041239560663018</v>
       </c>
       <c r="L2">
-        <v>1.034606930615969</v>
+        <v>1.033736430898081</v>
       </c>
       <c r="M2">
-        <v>1.034433248066139</v>
+        <v>1.03405376719568</v>
       </c>
       <c r="N2">
-        <v>1.015299177118379</v>
+        <v>1.016251333016727</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.035823981230282</v>
+        <v>1.035523645536016</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.041234926194177</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.040238975592242</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.022765952657407</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.019993871457939</v>
+        <v>1.018785199903512</v>
       </c>
       <c r="D3">
-        <v>1.034777216560416</v>
+        <v>1.032989052779467</v>
       </c>
       <c r="E3">
-        <v>1.027580611254898</v>
+        <v>1.02637822376396</v>
       </c>
       <c r="F3">
-        <v>1.026679715573384</v>
+        <v>1.02615685330719</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.05388517268081</v>
+        <v>1.052901070335907</v>
       </c>
       <c r="J3">
-        <v>1.039953935608579</v>
+        <v>1.038776539325483</v>
       </c>
       <c r="K3">
-        <v>1.044983643711937</v>
+        <v>1.043216539655899</v>
       </c>
       <c r="L3">
-        <v>1.037872348076044</v>
+        <v>1.036684358553423</v>
       </c>
       <c r="M3">
-        <v>1.036982236224614</v>
+        <v>1.036465643456354</v>
       </c>
       <c r="N3">
-        <v>1.016345694699428</v>
+        <v>1.016970589644532</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.037841344787841</v>
+        <v>1.037432494615791</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.042874951813593</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.041633929334158</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.023215800139412</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.02290800809797</v>
+        <v>1.021499382739041</v>
       </c>
       <c r="D4">
-        <v>1.036775766416317</v>
+        <v>1.034769088157238</v>
       </c>
       <c r="E4">
-        <v>1.030190283009856</v>
+        <v>1.028788044870398</v>
       </c>
       <c r="F4">
-        <v>1.028835482041361</v>
+        <v>1.028226658399702</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.054834929857574</v>
+        <v>1.053717060033267</v>
       </c>
       <c r="J4">
-        <v>1.041743338337859</v>
+        <v>1.040368674603712</v>
       </c>
       <c r="K4">
-        <v>1.046449711392901</v>
+        <v>1.044465237460869</v>
       </c>
       <c r="L4">
-        <v>1.039937496494955</v>
+        <v>1.038551008498788</v>
       </c>
       <c r="M4">
-        <v>1.03859791198433</v>
+        <v>1.037995942436849</v>
       </c>
       <c r="N4">
-        <v>1.017005821735862</v>
+        <v>1.017425183289901</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.039120047419657</v>
+        <v>1.038643627810991</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.043912471192799</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.042517831963046</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.023497371979507</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.024123954762374</v>
+        <v>1.022632067971449</v>
       </c>
       <c r="D5">
-        <v>1.037612872652381</v>
+        <v>1.035515151483765</v>
       </c>
       <c r="E5">
-        <v>1.031280885617372</v>
+        <v>1.029795360366136</v>
       </c>
       <c r="F5">
-        <v>1.029735464243007</v>
+        <v>1.0290908909823</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.055230567017931</v>
+        <v>1.054056882399193</v>
       </c>
       <c r="J5">
-        <v>1.042490992007565</v>
+        <v>1.041033990815873</v>
       </c>
       <c r="K5">
-        <v>1.047063819694103</v>
+        <v>1.044988690755674</v>
       </c>
       <c r="L5">
-        <v>1.040800371100299</v>
+        <v>1.039331075278739</v>
       </c>
       <c r="M5">
-        <v>1.039271834729333</v>
+        <v>1.038634322368942</v>
       </c>
       <c r="N5">
-        <v>1.017283243834087</v>
+        <v>1.017616244312049</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.039653412912602</v>
+        <v>1.03914886385256</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.044353822626144</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.042895797005153</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.023615797216167</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.024334381485366</v>
+        <v>1.022827446314678</v>
       </c>
       <c r="D6">
-        <v>1.03776076821349</v>
+        <v>1.035646871422654</v>
       </c>
       <c r="E6">
-        <v>1.031470390704383</v>
+        <v>1.029969813440176</v>
       </c>
       <c r="F6">
-        <v>1.029889145665483</v>
+        <v>1.029238110783633</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.055301318563201</v>
+        <v>1.054117651672778</v>
       </c>
       <c r="J6">
-        <v>1.042622893788508</v>
+        <v>1.0411510131854</v>
       </c>
       <c r="K6">
-        <v>1.047174241827041</v>
+        <v>1.045083006771787</v>
       </c>
       <c r="L6">
-        <v>1.040951634354104</v>
+        <v>1.039467373776921</v>
       </c>
       <c r="M6">
-        <v>1.03938758480471</v>
+        <v>1.038743648548566</v>
       </c>
       <c r="N6">
-        <v>1.017334318733284</v>
+        <v>1.017651191893342</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.039745021438368</v>
+        <v>1.039235388350997</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.044440592418181</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.042972051319534</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.023638328762553</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.022943616267828</v>
+        <v>1.021541664908095</v>
       </c>
       <c r="D7">
-        <v>1.036808292871022</v>
+        <v>1.034806148812291</v>
       </c>
       <c r="E7">
-        <v>1.030224118801873</v>
+        <v>1.028828518516266</v>
       </c>
       <c r="F7">
-        <v>1.028855884583079</v>
+        <v>1.02824994857549</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.05485309755863</v>
+        <v>1.053738648188279</v>
       </c>
       <c r="J7">
-        <v>1.041772206678072</v>
+        <v>1.040404040280047</v>
       </c>
       <c r="K7">
-        <v>1.046479019454912</v>
+        <v>1.044499020346503</v>
       </c>
       <c r="L7">
-        <v>1.039968069139642</v>
+        <v>1.038588137819597</v>
       </c>
       <c r="M7">
-        <v>1.038615196133328</v>
+        <v>1.038016079078871</v>
       </c>
       <c r="N7">
-        <v>1.017022393000842</v>
+        <v>1.017466517240856</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.039133726690845</v>
+        <v>1.038659564654034</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.043953193645675</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.042563725802635</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.023509959055753</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.016984261653078</v>
+        <v>1.016016226432671</v>
       </c>
       <c r="D8">
-        <v>1.03272585691148</v>
+        <v>1.031189746995681</v>
       </c>
       <c r="E8">
-        <v>1.02489181547107</v>
+        <v>1.023929502551158</v>
       </c>
       <c r="F8">
-        <v>1.024453766501126</v>
+        <v>1.024034619083423</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.052903440582858</v>
+        <v>1.05207578494373</v>
       </c>
       <c r="J8">
-        <v>1.038111001677726</v>
+        <v>1.037169817837929</v>
       </c>
       <c r="K8">
-        <v>1.043480057038244</v>
+        <v>1.041963178282207</v>
       </c>
       <c r="L8">
-        <v>1.035744845706631</v>
+        <v>1.034794803106973</v>
       </c>
       <c r="M8">
-        <v>1.035312378668291</v>
+        <v>1.034898577910979</v>
       </c>
       <c r="N8">
-        <v>1.015673116620863</v>
+        <v>1.016600838392729</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.036519758369011</v>
+        <v>1.036192260916984</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.041837256436361</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.040775715755486</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.022940587786014</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.005927049707818</v>
+        <v>1.005758219793502</v>
       </c>
       <c r="D9">
-        <v>1.025166430734677</v>
+        <v>1.024487399161513</v>
       </c>
       <c r="E9">
-        <v>1.015034597540963</v>
+        <v>1.01486723332016</v>
       </c>
       <c r="F9">
-        <v>1.016375658945651</v>
+        <v>1.016302317965371</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.049190185442694</v>
+        <v>1.048886511988559</v>
       </c>
       <c r="J9">
-        <v>1.031272230774971</v>
+        <v>1.031109266335749</v>
       </c>
       <c r="K9">
-        <v>1.037863981780892</v>
+        <v>1.037195296855225</v>
       </c>
       <c r="L9">
-        <v>1.027888369016044</v>
+        <v>1.027723618829515</v>
       </c>
       <c r="M9">
-        <v>1.029208524334157</v>
+        <v>1.029136324858945</v>
       </c>
       <c r="N9">
-        <v>1.013138201347307</v>
+        <v>1.014877391127006</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.031688923521966</v>
+        <v>1.031631781765955</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.037863162719992</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.037401084116663</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.021838701828067</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9983402276553692</v>
+        <v>0.9987765666921116</v>
       </c>
       <c r="D10">
-        <v>1.020020253162072</v>
+        <v>1.019970306735423</v>
       </c>
       <c r="E10">
-        <v>1.008317986451948</v>
+        <v>1.008749622234901</v>
       </c>
       <c r="F10">
-        <v>1.011113680211256</v>
+        <v>1.011303465905763</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.046624209388393</v>
+        <v>1.046707087461083</v>
       </c>
       <c r="J10">
-        <v>1.026619853033018</v>
+        <v>1.027038809204887</v>
       </c>
       <c r="K10">
-        <v>1.034037205436381</v>
+        <v>1.033988115689672</v>
       </c>
       <c r="L10">
-        <v>1.022538663804227</v>
+        <v>1.022962676361384</v>
       </c>
       <c r="M10">
-        <v>1.025285131720181</v>
+        <v>1.02547158850037</v>
       </c>
       <c r="N10">
-        <v>1.01144219345365</v>
+        <v>1.01385842512655</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.02863583595559</v>
+        <v>1.028783397040747</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.035174188702904</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.035151892867486</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.021107421993676</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9963406168136617</v>
+        <v>0.9968993644821739</v>
       </c>
       <c r="D11">
-        <v>1.018807054914771</v>
+        <v>1.018888226199554</v>
       </c>
       <c r="E11">
-        <v>1.006697798885357</v>
+        <v>1.007250015182904</v>
       </c>
       <c r="F11">
-        <v>1.011529903179454</v>
+        <v>1.011771162507148</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.04621490063344</v>
+        <v>1.046378035497215</v>
       </c>
       <c r="J11">
-        <v>1.025866426799467</v>
+        <v>1.02640170483726</v>
       </c>
       <c r="K11">
-        <v>1.033382804338761</v>
+        <v>1.033462517552425</v>
       </c>
       <c r="L11">
-        <v>1.021494500324872</v>
+        <v>1.022036489855283</v>
       </c>
       <c r="M11">
-        <v>1.02623760950128</v>
+        <v>1.026474454452961</v>
       </c>
       <c r="N11">
-        <v>1.011416889827958</v>
+        <v>1.014068234103812</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.029830228889846</v>
+        <v>1.030017570528997</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.034744353068437</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.034816332368016</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.021111824084181</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9960550869935137</v>
+        <v>0.9965833454231177</v>
       </c>
       <c r="D12">
-        <v>1.01870915508162</v>
+        <v>1.018767751203594</v>
       </c>
       <c r="E12">
-        <v>1.006549840868376</v>
+        <v>1.007071753089647</v>
       </c>
       <c r="F12">
-        <v>1.012599162932457</v>
+        <v>1.012826028531485</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.046308739918586</v>
+        <v>1.046456528056651</v>
       </c>
       <c r="J12">
-        <v>1.026027346100518</v>
+        <v>1.026533011406869</v>
       </c>
       <c r="K12">
-        <v>1.033486485608051</v>
+        <v>1.033544012231983</v>
       </c>
       <c r="L12">
-        <v>1.021552622960417</v>
+        <v>1.022064712095562</v>
       </c>
       <c r="M12">
-        <v>1.027488899135694</v>
+        <v>1.027711559470374</v>
       </c>
       <c r="N12">
-        <v>1.011666772401472</v>
+        <v>1.014320796981445</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.031148978295171</v>
+        <v>1.031325039478008</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.034817659104575</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.034873950548358</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.021215968721796</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.997088195973509</v>
+        <v>0.9974483569742718</v>
       </c>
       <c r="D13">
-        <v>1.019483851555883</v>
+        <v>1.019386791784262</v>
       </c>
       <c r="E13">
-        <v>1.007541771677545</v>
+        <v>1.007897647479809</v>
       </c>
       <c r="F13">
-        <v>1.014270424534062</v>
+        <v>1.014424428112124</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.046813167756366</v>
+        <v>1.046861604283155</v>
       </c>
       <c r="J13">
-        <v>1.026923227972079</v>
+        <v>1.027268083229569</v>
       </c>
       <c r="K13">
-        <v>1.034204241285896</v>
+        <v>1.034108943991396</v>
       </c>
       <c r="L13">
-        <v>1.022482342138463</v>
+        <v>1.022831558061275</v>
       </c>
       <c r="M13">
-        <v>1.029086105408546</v>
+        <v>1.029237275814586</v>
       </c>
       <c r="N13">
-        <v>1.012160131331709</v>
+        <v>1.014594527187221</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.032690254520082</v>
+        <v>1.03280975710023</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.035322643740321</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.035270633416894</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.02141062335864</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.998391783753325</v>
+        <v>0.998576631245387</v>
       </c>
       <c r="D14">
-        <v>1.020410189807965</v>
+        <v>1.020148396864555</v>
       </c>
       <c r="E14">
-        <v>1.008736077067136</v>
+        <v>1.008918776564626</v>
       </c>
       <c r="F14">
-        <v>1.015682975998703</v>
+        <v>1.015761820373255</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.047343710765367</v>
+        <v>1.047287323658404</v>
       </c>
       <c r="J14">
-        <v>1.027867369703934</v>
+        <v>1.028044483017816</v>
       </c>
       <c r="K14">
-        <v>1.034973676227023</v>
+        <v>1.034716574832206</v>
       </c>
       <c r="L14">
-        <v>1.023511858387648</v>
+        <v>1.023691186156594</v>
       </c>
       <c r="M14">
-        <v>1.03033166249684</v>
+        <v>1.030409077375773</v>
       </c>
       <c r="N14">
-        <v>1.012609358394455</v>
+        <v>1.014794950716055</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.033848999444159</v>
+        <v>1.033910188823919</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.03586808293727</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.035701801445186</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.021586850601279</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9990164262226496</v>
+        <v>0.9991275152337333</v>
       </c>
       <c r="D15">
-        <v>1.020843628376137</v>
+        <v>1.020511589632284</v>
       </c>
       <c r="E15">
-        <v>1.009295919386991</v>
+        <v>1.009405735420942</v>
       </c>
       <c r="F15">
-        <v>1.016209794564843</v>
+        <v>1.016257153597627</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.047574669111278</v>
+        <v>1.047473715490608</v>
       </c>
       <c r="J15">
-        <v>1.028278843391911</v>
+        <v>1.028385326800935</v>
       </c>
       <c r="K15">
-        <v>1.035313080068011</v>
+        <v>1.034986945144238</v>
       </c>
       <c r="L15">
-        <v>1.023973666354933</v>
+        <v>1.024081472322653</v>
       </c>
       <c r="M15">
-        <v>1.030762091447281</v>
+        <v>1.030808598814246</v>
       </c>
       <c r="N15">
-        <v>1.012782396664826</v>
+        <v>1.014859511572852</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.034226899639967</v>
+        <v>1.034263658491541</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.036113917352642</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.035899393814988</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.02165601910243</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.002005782257273</v>
+        <v>1.001826403585461</v>
       </c>
       <c r="D16">
-        <v>1.02285537754101</v>
+        <v>1.02223765069833</v>
       </c>
       <c r="E16">
-        <v>1.011921042716772</v>
+        <v>1.011743559894685</v>
       </c>
       <c r="F16">
-        <v>1.018147082311121</v>
+        <v>1.018070590777017</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.048566595455219</v>
+        <v>1.048286023529305</v>
       </c>
       <c r="J16">
-        <v>1.030063513847636</v>
+        <v>1.029891191001964</v>
       </c>
       <c r="K16">
-        <v>1.036788375684845</v>
+        <v>1.036181145159125</v>
       </c>
       <c r="L16">
-        <v>1.02604228837503</v>
+        <v>1.025867904592292</v>
       </c>
       <c r="M16">
-        <v>1.032160498562162</v>
+        <v>1.03208532144802</v>
       </c>
       <c r="N16">
-        <v>1.013399507873356</v>
+        <v>1.015046989438588</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.035293321368524</v>
+        <v>1.03523390057938</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.037160159169347</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.036747185835382</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.021910863473493</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.00363002925157</v>
+        <v>1.003329020390165</v>
       </c>
       <c r="D17">
-        <v>1.023924963640749</v>
+        <v>1.023180522788006</v>
       </c>
       <c r="E17">
-        <v>1.013324013712354</v>
+        <v>1.013026026158477</v>
       </c>
       <c r="F17">
-        <v>1.018901793258777</v>
+        <v>1.018773246125117</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.04905411480686</v>
+        <v>1.048695249364533</v>
       </c>
       <c r="J17">
-        <v>1.030949421973616</v>
+        <v>1.030659867628636</v>
       </c>
       <c r="K17">
-        <v>1.037526114373042</v>
+        <v>1.036793964668645</v>
       </c>
       <c r="L17">
-        <v>1.027102389406889</v>
+        <v>1.026809452738803</v>
       </c>
       <c r="M17">
-        <v>1.032586328185685</v>
+        <v>1.032459928827562</v>
       </c>
       <c r="N17">
-        <v>1.013642517621057</v>
+        <v>1.015119014796168</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.035500324676579</v>
+        <v>1.035400407266046</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.037684346915938</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.037183297055062</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.022017907391839</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.004165181080523</v>
+        <v>1.003870155068705</v>
       </c>
       <c r="D18">
-        <v>1.02422491322174</v>
+        <v>1.023475923882659</v>
       </c>
       <c r="E18">
-        <v>1.013735640482798</v>
+        <v>1.013443490605968</v>
       </c>
       <c r="F18">
-        <v>1.018531603756643</v>
+        <v>1.01840521129676</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.049113699504074</v>
+        <v>1.048754000961574</v>
       </c>
       <c r="J18">
-        <v>1.031071751169538</v>
+        <v>1.030787745724148</v>
       </c>
       <c r="K18">
-        <v>1.037638196157335</v>
+        <v>1.036901373220124</v>
       </c>
       <c r="L18">
-        <v>1.027321417368042</v>
+        <v>1.027034137678465</v>
       </c>
       <c r="M18">
-        <v>1.032037944908712</v>
+        <v>1.031913633544072</v>
       </c>
       <c r="N18">
-        <v>1.013548933805601</v>
+        <v>1.015032120080974</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.034827897834074</v>
+        <v>1.034729610314709</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.037751978466358</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.037246488805466</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.021984926385157</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.003694861015567</v>
+        <v>1.00351210681583</v>
       </c>
       <c r="D19">
-        <v>1.023823991110665</v>
+        <v>1.023175295350279</v>
       </c>
       <c r="E19">
-        <v>1.013229707791765</v>
+        <v>1.013048722048325</v>
       </c>
       <c r="F19">
-        <v>1.017040230720789</v>
+        <v>1.016961544400125</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.048781625773687</v>
+        <v>1.048486864875241</v>
       </c>
       <c r="J19">
-        <v>1.030485188478389</v>
+        <v>1.030309228984696</v>
       </c>
       <c r="K19">
-        <v>1.037181374935332</v>
+        <v>1.036543169469839</v>
       </c>
       <c r="L19">
-        <v>1.026760580728286</v>
+        <v>1.026582599348209</v>
       </c>
       <c r="M19">
-        <v>1.030508168266593</v>
+        <v>1.030430775411841</v>
       </c>
       <c r="N19">
-        <v>1.013159829356873</v>
+        <v>1.014783837331363</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.033290579104945</v>
+        <v>1.033229367741479</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.037435377721567</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.037000241686727</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.021827132804347</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.000371203641628</v>
+        <v>1.000605252130814</v>
       </c>
       <c r="D20">
-        <v>1.021417363136609</v>
+        <v>1.021168344284838</v>
       </c>
       <c r="E20">
-        <v>1.010120097442218</v>
+        <v>1.01035175394117</v>
       </c>
       <c r="F20">
-        <v>1.012514478478108</v>
+        <v>1.012616241156262</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.047332784840622</v>
+        <v>1.047290774542335</v>
       </c>
       <c r="J20">
-        <v>1.027887823506621</v>
+        <v>1.028112862244632</v>
       </c>
       <c r="K20">
-        <v>1.035093785739664</v>
+        <v>1.034848913552385</v>
       </c>
       <c r="L20">
-        <v>1.023987301067451</v>
+        <v>1.024214990135911</v>
       </c>
       <c r="M20">
-        <v>1.026340788204906</v>
+        <v>1.026440818399416</v>
       </c>
       <c r="N20">
-        <v>1.011924143428818</v>
+        <v>1.014065346139746</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.029460611538132</v>
+        <v>1.029539775949214</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.035963307493291</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.035806671704123</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.02130943103742</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9943751443244745</v>
+        <v>0.9952746738667859</v>
       </c>
       <c r="D21">
-        <v>1.017329552161493</v>
+        <v>1.017724254984978</v>
       </c>
       <c r="E21">
-        <v>1.004794385059337</v>
+        <v>1.005683236736085</v>
       </c>
       <c r="F21">
-        <v>1.008024076959734</v>
+        <v>1.00841614564592</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.045230565869251</v>
+        <v>1.04559473604445</v>
       </c>
       <c r="J21">
-        <v>1.02410993555102</v>
+        <v>1.024971296213916</v>
       </c>
       <c r="K21">
-        <v>1.031989884074852</v>
+        <v>1.032377440386704</v>
       </c>
       <c r="L21">
-        <v>1.019685492093431</v>
+        <v>1.020557732505116</v>
       </c>
       <c r="M21">
-        <v>1.022855008831506</v>
+        <v>1.023239806760701</v>
       </c>
       <c r="N21">
-        <v>1.010498620476656</v>
+        <v>1.013611674346468</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.026660461295777</v>
+        <v>1.026965008987306</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.033771978384382</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.034062832001511</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.020745698365605</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9905705229921942</v>
+        <v>0.9918952561719954</v>
       </c>
       <c r="D22">
-        <v>1.01474142305977</v>
+        <v>1.015546581409089</v>
       </c>
       <c r="E22">
-        <v>1.001428566147882</v>
+        <v>1.002736116115599</v>
       </c>
       <c r="F22">
-        <v>1.005307839193246</v>
+        <v>1.005885849826172</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.043895884587948</v>
+        <v>1.044518337628316</v>
       </c>
       <c r="J22">
-        <v>1.021730237835691</v>
+        <v>1.02299534275497</v>
       </c>
       <c r="K22">
-        <v>1.030026398798418</v>
+        <v>1.030816223171153</v>
       </c>
       <c r="L22">
-        <v>1.016971775885901</v>
+        <v>1.018253564181446</v>
       </c>
       <c r="M22">
-        <v>1.020774875024378</v>
+        <v>1.021341601731368</v>
       </c>
       <c r="N22">
-        <v>1.009606369071683</v>
+        <v>1.013329166018366</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.025014140449161</v>
+        <v>1.025462676407474</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.032370185704443</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.032944175929863</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.020391916097</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9925766438657803</v>
+        <v>0.9936597904773457</v>
       </c>
       <c r="D23">
-        <v>1.016098109728907</v>
+        <v>1.016672874208168</v>
       </c>
       <c r="E23">
-        <v>1.003200549131636</v>
+        <v>1.004270283542919</v>
       </c>
       <c r="F23">
-        <v>1.006744376517829</v>
+        <v>1.00721671130938</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.04459485953772</v>
+        <v>1.045071598535251</v>
       </c>
       <c r="J23">
-        <v>1.022978637437812</v>
+        <v>1.024014519152553</v>
       </c>
       <c r="K23">
-        <v>1.031051678721361</v>
+        <v>1.031615783716432</v>
       </c>
       <c r="L23">
-        <v>1.018397519784208</v>
+        <v>1.0194467550739</v>
       </c>
       <c r="M23">
-        <v>1.021873655718555</v>
+        <v>1.022337015376577</v>
       </c>
       <c r="N23">
-        <v>1.010067613769556</v>
+        <v>1.013422666965333</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.025883770366733</v>
+        <v>1.026250496009486</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.03308544881094</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.033498903161297</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.020566171010892</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.000305160060618</v>
+        <v>1.000558003731941</v>
       </c>
       <c r="D24">
-        <v>1.021348476729485</v>
+        <v>1.021115645961916</v>
       </c>
       <c r="E24">
-        <v>1.010044791054141</v>
+        <v>1.010295055669226</v>
       </c>
       <c r="F24">
-        <v>1.01229762745441</v>
+        <v>1.012407644787821</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.047275059296877</v>
+        <v>1.047243723626004</v>
       </c>
       <c r="J24">
-        <v>1.027791468155636</v>
+        <v>1.028034590665962</v>
       </c>
       <c r="K24">
-        <v>1.035010781951499</v>
+        <v>1.034781823909751</v>
       </c>
       <c r="L24">
-        <v>1.023897775633624</v>
+        <v>1.024143758916437</v>
       </c>
       <c r="M24">
-        <v>1.026112170708566</v>
+        <v>1.026220316415976</v>
       </c>
       <c r="N24">
-        <v>1.011856408624626</v>
+        <v>1.014020052001069</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.029238332472499</v>
+        <v>1.029323923908871</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.035877218112307</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.035729167565621</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.021278083262716</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.008884248862931</v>
+        <v>1.008480627412917</v>
       </c>
       <c r="D25">
-        <v>1.027197200436077</v>
+        <v>1.026273379411009</v>
       </c>
       <c r="E25">
-        <v>1.01766924786196</v>
+        <v>1.017268823664911</v>
       </c>
       <c r="F25">
-        <v>1.01851678492328</v>
+        <v>1.018341599073832</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.050203151081427</v>
+        <v>1.049748641543857</v>
       </c>
       <c r="J25">
-        <v>1.033116277638223</v>
+        <v>1.032725916904467</v>
       </c>
       <c r="K25">
-        <v>1.039387491563323</v>
+        <v>1.038477080116078</v>
       </c>
       <c r="L25">
-        <v>1.029999326676616</v>
+        <v>1.029604850121125</v>
       </c>
       <c r="M25">
-        <v>1.030834294574599</v>
+        <v>1.030661704590227</v>
       </c>
       <c r="N25">
-        <v>1.013832780273128</v>
+        <v>1.015310734207679</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.032975626463102</v>
+        <v>1.032839031603299</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.038968905457047</v>
+        <v>1.038338711228214</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.022140710525018</v>
       </c>
     </row>
   </sheetData>
